--- a/etc/Acceptance Test Plan_2175-swen-261-04-b.xlsx
+++ b/etc/Acceptance Test Plan_2175-swen-261-04-b.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\rit\Year1Spring\Software_Engineering\team-project-2175-swen-261-b\etc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xxleg\Documents\IntroSE\team-project-2175-swen-261-b\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9C6F5121-F22E-429E-B209-028FDA4EB47B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="102">
   <si>
     <t>Instructions</t>
   </si>
@@ -206,9 +205,6 @@
     <t>Given that I have moved a non-king piece to the opponent's edge of the board when I have made the move then that piece becomes a king piece.</t>
   </si>
   <si>
-    <t>Given I am holding a piece when I hover over a space on the checkerboard then I see a visual indication of whether I am allowed to drop the piece in that location.</t>
-  </si>
-  <si>
     <t>Given I am holding a piece over an invalid location when I drop the piece then the piece does not drop where I held it over.</t>
   </si>
   <si>
@@ -336,12 +332,15 @@
   </si>
   <si>
     <t>Given the ai has made a "Mistake" when the ai just played its turn then I expect the ai to correct the "mistake"</t>
+  </si>
+  <si>
+    <t>CV 4/18/18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -484,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -613,12 +612,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -628,17 +621,61 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="286">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -650,6 +687,23 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -691,6 +745,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -701,6 +769,23 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -715,13 +800,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -742,6 +820,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -752,6 +851,23 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -786,6 +902,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -796,6 +933,23 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -810,6 +964,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFCC"/>
@@ -817,6 +991,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -837,6 +1025,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -847,6 +1056,23 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -881,6 +1107,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -891,6 +1138,23 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -921,6 +1185,1827 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1264,7 +3349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -1309,14 +3394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H612"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H611"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="G65" sqref="G65:H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1327,8 +3412,8 @@
     <col min="4" max="4" width="60" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="43" customWidth="1"/>
     <col min="6" max="6" width="60" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="43" customWidth="1"/>
-    <col min="8" max="8" width="60" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="56" customWidth="1"/>
+    <col min="8" max="8" width="60" style="50" customWidth="1"/>
     <col min="9" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
@@ -1351,10 +3436,10 @@
       <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1372,12 +3457,17 @@
         <v>28</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
@@ -1391,12 +3481,17 @@
         <v>28</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1410,12 +3505,17 @@
         <v>28</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -1429,12 +3529,17 @@
         <v>28</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
@@ -1448,12 +3553,17 @@
         <v>28</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
@@ -1467,12 +3577,17 @@
         <v>28</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
@@ -1486,12 +3601,17 @@
         <v>28</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -1507,13 +3627,17 @@
         <v>28</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1527,12 +3651,17 @@
         <v>28</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1546,12 +3675,17 @@
         <v>28</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1565,12 +3699,17 @@
         <v>28</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -1584,12 +3723,17 @@
         <v>28</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -1603,12 +3747,17 @@
         <v>28</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1622,12 +3771,17 @@
         <v>28</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
@@ -1641,24 +3795,29 @@
         <v>28</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="27"/>
       <c r="D17" s="28"/>
       <c r="E17" s="37"/>
       <c r="F17" s="28"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="28"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
@@ -1669,10 +3828,10 @@
       <c r="D18" s="31"/>
       <c r="E18" s="38"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="31"/>
-    </row>
-    <row r="19" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
+    </row>
+    <row r="19" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -1685,10 +3844,14 @@
         <v>29</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
@@ -1698,11 +3861,15 @@
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
       <c r="E20" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="13"/>
+      <c r="G20" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
@@ -1712,13 +3879,17 @@
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
       <c r="E21" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+        <v>99</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
@@ -1728,13 +3899,17 @@
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
       <c r="E22" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
@@ -1744,31 +3919,39 @@
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
       <c r="E23" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
+        <v>99</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="7"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
@@ -1778,15 +3961,19 @@
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
       <c r="E25" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
-    </row>
-    <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="13" t="s">
         <v>60</v>
@@ -1794,159 +3981,191 @@
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
       <c r="E26" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="45"/>
-    </row>
-    <row r="28" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="G27" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
-    </row>
-    <row r="29" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="45"/>
-    </row>
-    <row r="30" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="31"/>
-    </row>
-    <row r="32" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="36" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="47"/>
-    </row>
-    <row r="33" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13" t="s">
+      <c r="F32" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="22"/>
+    </row>
+    <row r="34" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="35" t="s">
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="31"/>
-    </row>
-    <row r="35" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="F34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="36" t="s">
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F35" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
         <v>68</v>
@@ -1954,389 +4173,481 @@
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
       <c r="E36" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="H36" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="22"/>
+    </row>
+    <row r="38" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="35"/>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="31"/>
-    </row>
-    <row r="39" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="36" t="s">
+      <c r="B44" s="24"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="22"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="55"/>
+    </row>
+    <row r="46" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="36"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="45"/>
-    </row>
-    <row r="41" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" s="36"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G43" s="46"/>
-      <c r="H43" s="47"/>
-    </row>
-    <row r="44" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G44" s="44"/>
-      <c r="H44" s="45"/>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="31"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="29"/>
-    </row>
-    <row r="47" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="16"/>
       <c r="E47" s="41"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="47"/>
-    </row>
-    <row r="48" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="7" t="s">
+      <c r="G47" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="47"/>
-    </row>
-    <row r="49" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="50"/>
-    </row>
-    <row r="50" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="7" t="s">
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="47"/>
-    </row>
-    <row r="51" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13" t="s">
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="45"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="47"/>
-    </row>
-    <row r="53" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="13" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="18"/>
       <c r="E53" s="42"/>
       <c r="F53" s="18"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="45"/>
-    </row>
-    <row r="54" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13" t="s">
+      <c r="G53" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="45"/>
-    </row>
-    <row r="55" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+    </row>
+    <row r="54" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B54" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="47"/>
-    </row>
-    <row r="56" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="45"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
+      <c r="C55" s="17"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="31"/>
-    </row>
-    <row r="58" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="22"/>
+    </row>
+    <row r="57" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B57" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="47"/>
-    </row>
-    <row r="59" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13" t="s">
+      <c r="C58" s="17"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="45"/>
-    </row>
-    <row r="60" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="7" t="s">
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="47"/>
-    </row>
-    <row r="61" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C60" s="17"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="18"/>
       <c r="E61" s="42"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="45"/>
-    </row>
-    <row r="62" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="2" t="s">
+      <c r="G61" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="45"/>
-    </row>
-    <row r="63" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63" s="7" t="s">
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="47"/>
-    </row>
-    <row r="64" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13"/>
       <c r="B64" s="13" t="s">
         <v>82</v>
@@ -2345,2790 +4656,3831 @@
       <c r="D64" s="18"/>
       <c r="E64" s="42"/>
       <c r="F64" s="18"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="45"/>
-    </row>
-    <row r="65" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13" t="s">
+      <c r="G64" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="45"/>
-    </row>
-    <row r="66" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="13"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="52"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C68" s="5"/>
+      <c r="E68" s="35"/>
+      <c r="G68" s="49"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C69" s="5"/>
       <c r="E69" s="35"/>
-      <c r="G69" s="35"/>
+      <c r="G69" s="49"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C70" s="5"/>
       <c r="E70" s="35"/>
-      <c r="G70" s="35"/>
+      <c r="G70" s="49"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C71" s="5"/>
       <c r="E71" s="35"/>
-      <c r="G71" s="35"/>
+      <c r="G71" s="49"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C72" s="5"/>
       <c r="E72" s="35"/>
-      <c r="G72" s="35"/>
+      <c r="G72" s="49"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C73" s="5"/>
       <c r="E73" s="35"/>
-      <c r="G73" s="35"/>
+      <c r="G73" s="49"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C74" s="5"/>
       <c r="E74" s="35"/>
-      <c r="G74" s="35"/>
+      <c r="G74" s="49"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C75" s="5"/>
       <c r="E75" s="35"/>
-      <c r="G75" s="35"/>
+      <c r="G75" s="49"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C76" s="5"/>
       <c r="E76" s="35"/>
-      <c r="G76" s="35"/>
+      <c r="G76" s="49"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C77" s="5"/>
       <c r="E77" s="35"/>
-      <c r="G77" s="35"/>
+      <c r="G77" s="49"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C78" s="5"/>
       <c r="E78" s="35"/>
-      <c r="G78" s="35"/>
+      <c r="G78" s="49"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C79" s="5"/>
       <c r="E79" s="35"/>
-      <c r="G79" s="35"/>
+      <c r="G79" s="49"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
       <c r="E80" s="35"/>
-      <c r="G80" s="35"/>
+      <c r="G80" s="49"/>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
       <c r="E81" s="35"/>
-      <c r="G81" s="35"/>
+      <c r="G81" s="49"/>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C82" s="5"/>
       <c r="E82" s="35"/>
-      <c r="G82" s="35"/>
+      <c r="G82" s="49"/>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C83" s="5"/>
       <c r="E83" s="35"/>
-      <c r="G83" s="35"/>
+      <c r="G83" s="49"/>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C84" s="5"/>
       <c r="E84" s="35"/>
-      <c r="G84" s="35"/>
+      <c r="G84" s="49"/>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C85" s="5"/>
       <c r="E85" s="35"/>
-      <c r="G85" s="35"/>
+      <c r="G85" s="49"/>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C86" s="5"/>
       <c r="E86" s="35"/>
-      <c r="G86" s="35"/>
+      <c r="G86" s="49"/>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C87" s="5"/>
       <c r="E87" s="35"/>
-      <c r="G87" s="35"/>
+      <c r="G87" s="49"/>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C88" s="5"/>
       <c r="E88" s="35"/>
-      <c r="G88" s="35"/>
+      <c r="G88" s="49"/>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C89" s="5"/>
       <c r="E89" s="35"/>
-      <c r="G89" s="35"/>
+      <c r="G89" s="49"/>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C90" s="5"/>
       <c r="E90" s="35"/>
-      <c r="G90" s="35"/>
+      <c r="G90" s="49"/>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C91" s="5"/>
       <c r="E91" s="35"/>
-      <c r="G91" s="35"/>
+      <c r="G91" s="49"/>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C92" s="5"/>
       <c r="E92" s="35"/>
-      <c r="G92" s="35"/>
+      <c r="G92" s="49"/>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C93" s="5"/>
       <c r="E93" s="35"/>
-      <c r="G93" s="35"/>
+      <c r="G93" s="49"/>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C94" s="5"/>
       <c r="E94" s="35"/>
-      <c r="G94" s="35"/>
+      <c r="G94" s="49"/>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C95" s="5"/>
       <c r="E95" s="35"/>
-      <c r="G95" s="35"/>
+      <c r="G95" s="49"/>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C96" s="5"/>
       <c r="E96" s="35"/>
-      <c r="G96" s="35"/>
+      <c r="G96" s="49"/>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C97" s="5"/>
       <c r="E97" s="35"/>
-      <c r="G97" s="35"/>
+      <c r="G97" s="49"/>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C98" s="5"/>
       <c r="E98" s="35"/>
-      <c r="G98" s="35"/>
+      <c r="G98" s="49"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" s="5"/>
       <c r="E99" s="35"/>
-      <c r="G99" s="35"/>
+      <c r="G99" s="49"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C100" s="5"/>
       <c r="E100" s="35"/>
-      <c r="G100" s="35"/>
+      <c r="G100" s="49"/>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C101" s="5"/>
       <c r="E101" s="35"/>
-      <c r="G101" s="35"/>
+      <c r="G101" s="49"/>
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C102" s="5"/>
       <c r="E102" s="35"/>
-      <c r="G102" s="35"/>
+      <c r="G102" s="49"/>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C103" s="5"/>
       <c r="E103" s="35"/>
-      <c r="G103" s="35"/>
+      <c r="G103" s="49"/>
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C104" s="5"/>
       <c r="E104" s="35"/>
-      <c r="G104" s="35"/>
+      <c r="G104" s="49"/>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C105" s="5"/>
       <c r="E105" s="35"/>
-      <c r="G105" s="35"/>
+      <c r="G105" s="49"/>
     </row>
     <row r="106" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C106" s="5"/>
       <c r="E106" s="35"/>
-      <c r="G106" s="35"/>
+      <c r="G106" s="49"/>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C107" s="5"/>
       <c r="E107" s="35"/>
-      <c r="G107" s="35"/>
+      <c r="G107" s="49"/>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108" s="5"/>
       <c r="E108" s="35"/>
-      <c r="G108" s="35"/>
+      <c r="G108" s="49"/>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109" s="5"/>
       <c r="E109" s="35"/>
-      <c r="G109" s="35"/>
+      <c r="G109" s="49"/>
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C110" s="5"/>
       <c r="E110" s="35"/>
-      <c r="G110" s="35"/>
+      <c r="G110" s="49"/>
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C111" s="5"/>
       <c r="E111" s="35"/>
-      <c r="G111" s="35"/>
+      <c r="G111" s="49"/>
     </row>
     <row r="112" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C112" s="5"/>
       <c r="E112" s="35"/>
-      <c r="G112" s="35"/>
+      <c r="G112" s="49"/>
     </row>
     <row r="113" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C113" s="5"/>
       <c r="E113" s="35"/>
-      <c r="G113" s="35"/>
+      <c r="G113" s="49"/>
     </row>
     <row r="114" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C114" s="5"/>
       <c r="E114" s="35"/>
-      <c r="G114" s="35"/>
+      <c r="G114" s="49"/>
     </row>
     <row r="115" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C115" s="5"/>
       <c r="E115" s="35"/>
-      <c r="G115" s="35"/>
+      <c r="G115" s="49"/>
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C116" s="5"/>
       <c r="E116" s="35"/>
-      <c r="G116" s="35"/>
+      <c r="G116" s="49"/>
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C117" s="5"/>
       <c r="E117" s="35"/>
-      <c r="G117" s="35"/>
+      <c r="G117" s="49"/>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C118" s="5"/>
       <c r="E118" s="35"/>
-      <c r="G118" s="35"/>
+      <c r="G118" s="49"/>
     </row>
     <row r="119" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C119" s="5"/>
       <c r="E119" s="35"/>
-      <c r="G119" s="35"/>
+      <c r="G119" s="49"/>
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C120" s="5"/>
       <c r="E120" s="35"/>
-      <c r="G120" s="35"/>
+      <c r="G120" s="49"/>
     </row>
     <row r="121" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C121" s="5"/>
       <c r="E121" s="35"/>
-      <c r="G121" s="35"/>
+      <c r="G121" s="49"/>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C122" s="5"/>
       <c r="E122" s="35"/>
-      <c r="G122" s="35"/>
+      <c r="G122" s="49"/>
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C123" s="5"/>
       <c r="E123" s="35"/>
-      <c r="G123" s="35"/>
+      <c r="G123" s="49"/>
     </row>
     <row r="124" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C124" s="5"/>
       <c r="E124" s="35"/>
-      <c r="G124" s="35"/>
+      <c r="G124" s="49"/>
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C125" s="5"/>
       <c r="E125" s="35"/>
-      <c r="G125" s="35"/>
+      <c r="G125" s="49"/>
     </row>
     <row r="126" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C126" s="5"/>
       <c r="E126" s="35"/>
-      <c r="G126" s="35"/>
+      <c r="G126" s="49"/>
     </row>
     <row r="127" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C127" s="5"/>
       <c r="E127" s="35"/>
-      <c r="G127" s="35"/>
+      <c r="G127" s="49"/>
     </row>
     <row r="128" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C128" s="5"/>
       <c r="E128" s="35"/>
-      <c r="G128" s="35"/>
+      <c r="G128" s="49"/>
     </row>
     <row r="129" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C129" s="5"/>
       <c r="E129" s="35"/>
-      <c r="G129" s="35"/>
+      <c r="G129" s="49"/>
     </row>
     <row r="130" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C130" s="5"/>
       <c r="E130" s="35"/>
-      <c r="G130" s="35"/>
+      <c r="G130" s="49"/>
     </row>
     <row r="131" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C131" s="5"/>
       <c r="E131" s="35"/>
-      <c r="G131" s="35"/>
+      <c r="G131" s="49"/>
     </row>
     <row r="132" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C132" s="5"/>
       <c r="E132" s="35"/>
-      <c r="G132" s="35"/>
+      <c r="G132" s="49"/>
     </row>
     <row r="133" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C133" s="5"/>
       <c r="E133" s="35"/>
-      <c r="G133" s="35"/>
+      <c r="G133" s="49"/>
     </row>
     <row r="134" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C134" s="5"/>
       <c r="E134" s="35"/>
-      <c r="G134" s="35"/>
+      <c r="G134" s="49"/>
     </row>
     <row r="135" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C135" s="5"/>
       <c r="E135" s="35"/>
-      <c r="G135" s="35"/>
+      <c r="G135" s="49"/>
     </row>
     <row r="136" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C136" s="5"/>
       <c r="E136" s="35"/>
-      <c r="G136" s="35"/>
+      <c r="G136" s="49"/>
     </row>
     <row r="137" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C137" s="5"/>
       <c r="E137" s="35"/>
-      <c r="G137" s="35"/>
+      <c r="G137" s="49"/>
     </row>
     <row r="138" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C138" s="5"/>
       <c r="E138" s="35"/>
-      <c r="G138" s="35"/>
+      <c r="G138" s="49"/>
     </row>
     <row r="139" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C139" s="5"/>
       <c r="E139" s="35"/>
-      <c r="G139" s="35"/>
+      <c r="G139" s="49"/>
     </row>
     <row r="140" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C140" s="5"/>
       <c r="E140" s="35"/>
-      <c r="G140" s="35"/>
+      <c r="G140" s="49"/>
     </row>
     <row r="141" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C141" s="5"/>
       <c r="E141" s="35"/>
-      <c r="G141" s="35"/>
+      <c r="G141" s="49"/>
     </row>
     <row r="142" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C142" s="5"/>
       <c r="E142" s="35"/>
-      <c r="G142" s="35"/>
+      <c r="G142" s="49"/>
     </row>
     <row r="143" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C143" s="5"/>
       <c r="E143" s="35"/>
-      <c r="G143" s="35"/>
+      <c r="G143" s="49"/>
     </row>
     <row r="144" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C144" s="5"/>
       <c r="E144" s="35"/>
-      <c r="G144" s="35"/>
+      <c r="G144" s="49"/>
     </row>
     <row r="145" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C145" s="5"/>
       <c r="E145" s="35"/>
-      <c r="G145" s="35"/>
+      <c r="G145" s="49"/>
     </row>
     <row r="146" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C146" s="5"/>
       <c r="E146" s="35"/>
-      <c r="G146" s="35"/>
+      <c r="G146" s="49"/>
     </row>
     <row r="147" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C147" s="5"/>
       <c r="E147" s="35"/>
-      <c r="G147" s="35"/>
+      <c r="G147" s="49"/>
     </row>
     <row r="148" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C148" s="5"/>
       <c r="E148" s="35"/>
-      <c r="G148" s="35"/>
+      <c r="G148" s="49"/>
     </row>
     <row r="149" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C149" s="5"/>
       <c r="E149" s="35"/>
-      <c r="G149" s="35"/>
+      <c r="G149" s="49"/>
     </row>
     <row r="150" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C150" s="5"/>
       <c r="E150" s="35"/>
-      <c r="G150" s="35"/>
+      <c r="G150" s="49"/>
     </row>
     <row r="151" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C151" s="5"/>
       <c r="E151" s="35"/>
-      <c r="G151" s="35"/>
+      <c r="G151" s="49"/>
     </row>
     <row r="152" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C152" s="5"/>
       <c r="E152" s="35"/>
-      <c r="G152" s="35"/>
+      <c r="G152" s="49"/>
     </row>
     <row r="153" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C153" s="5"/>
       <c r="E153" s="35"/>
-      <c r="G153" s="35"/>
+      <c r="G153" s="49"/>
     </row>
     <row r="154" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C154" s="5"/>
       <c r="E154" s="35"/>
-      <c r="G154" s="35"/>
+      <c r="G154" s="49"/>
     </row>
     <row r="155" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C155" s="5"/>
       <c r="E155" s="35"/>
-      <c r="G155" s="35"/>
+      <c r="G155" s="49"/>
     </row>
     <row r="156" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C156" s="5"/>
       <c r="E156" s="35"/>
-      <c r="G156" s="35"/>
+      <c r="G156" s="49"/>
     </row>
     <row r="157" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C157" s="5"/>
       <c r="E157" s="35"/>
-      <c r="G157" s="35"/>
+      <c r="G157" s="49"/>
     </row>
     <row r="158" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C158" s="5"/>
       <c r="E158" s="35"/>
-      <c r="G158" s="35"/>
+      <c r="G158" s="49"/>
     </row>
     <row r="159" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C159" s="5"/>
       <c r="E159" s="35"/>
-      <c r="G159" s="35"/>
+      <c r="G159" s="49"/>
     </row>
     <row r="160" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C160" s="5"/>
       <c r="E160" s="35"/>
-      <c r="G160" s="35"/>
+      <c r="G160" s="49"/>
     </row>
     <row r="161" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C161" s="5"/>
       <c r="E161" s="35"/>
-      <c r="G161" s="35"/>
+      <c r="G161" s="49"/>
     </row>
     <row r="162" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C162" s="5"/>
       <c r="E162" s="35"/>
-      <c r="G162" s="35"/>
+      <c r="G162" s="49"/>
     </row>
     <row r="163" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C163" s="5"/>
       <c r="E163" s="35"/>
-      <c r="G163" s="35"/>
+      <c r="G163" s="49"/>
     </row>
     <row r="164" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C164" s="5"/>
       <c r="E164" s="35"/>
-      <c r="G164" s="35"/>
+      <c r="G164" s="49"/>
     </row>
     <row r="165" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C165" s="5"/>
       <c r="E165" s="35"/>
-      <c r="G165" s="35"/>
+      <c r="G165" s="49"/>
     </row>
     <row r="166" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C166" s="5"/>
       <c r="E166" s="35"/>
-      <c r="G166" s="35"/>
+      <c r="G166" s="49"/>
     </row>
     <row r="167" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C167" s="5"/>
       <c r="E167" s="35"/>
-      <c r="G167" s="35"/>
+      <c r="G167" s="49"/>
     </row>
     <row r="168" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C168" s="5"/>
       <c r="E168" s="35"/>
-      <c r="G168" s="35"/>
+      <c r="G168" s="49"/>
     </row>
     <row r="169" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C169" s="5"/>
       <c r="E169" s="35"/>
-      <c r="G169" s="35"/>
+      <c r="G169" s="49"/>
     </row>
     <row r="170" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C170" s="5"/>
       <c r="E170" s="35"/>
-      <c r="G170" s="35"/>
+      <c r="G170" s="49"/>
     </row>
     <row r="171" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C171" s="5"/>
       <c r="E171" s="35"/>
-      <c r="G171" s="35"/>
+      <c r="G171" s="49"/>
     </row>
     <row r="172" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C172" s="5"/>
       <c r="E172" s="35"/>
-      <c r="G172" s="35"/>
+      <c r="G172" s="49"/>
     </row>
     <row r="173" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C173" s="5"/>
       <c r="E173" s="35"/>
-      <c r="G173" s="35"/>
+      <c r="G173" s="49"/>
     </row>
     <row r="174" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C174" s="5"/>
       <c r="E174" s="35"/>
-      <c r="G174" s="35"/>
+      <c r="G174" s="49"/>
     </row>
     <row r="175" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C175" s="5"/>
       <c r="E175" s="35"/>
-      <c r="G175" s="35"/>
+      <c r="G175" s="49"/>
     </row>
     <row r="176" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C176" s="5"/>
       <c r="E176" s="35"/>
-      <c r="G176" s="35"/>
+      <c r="G176" s="49"/>
     </row>
     <row r="177" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C177" s="5"/>
       <c r="E177" s="35"/>
-      <c r="G177" s="35"/>
+      <c r="G177" s="49"/>
     </row>
     <row r="178" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C178" s="5"/>
       <c r="E178" s="35"/>
-      <c r="G178" s="35"/>
+      <c r="G178" s="49"/>
     </row>
     <row r="179" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C179" s="5"/>
       <c r="E179" s="35"/>
-      <c r="G179" s="35"/>
+      <c r="G179" s="49"/>
     </row>
     <row r="180" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C180" s="5"/>
       <c r="E180" s="35"/>
-      <c r="G180" s="35"/>
+      <c r="G180" s="49"/>
     </row>
     <row r="181" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C181" s="5"/>
       <c r="E181" s="35"/>
-      <c r="G181" s="35"/>
+      <c r="G181" s="49"/>
     </row>
     <row r="182" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C182" s="5"/>
       <c r="E182" s="35"/>
-      <c r="G182" s="35"/>
+      <c r="G182" s="49"/>
     </row>
     <row r="183" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C183" s="5"/>
       <c r="E183" s="35"/>
-      <c r="G183" s="35"/>
+      <c r="G183" s="49"/>
     </row>
     <row r="184" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C184" s="5"/>
       <c r="E184" s="35"/>
-      <c r="G184" s="35"/>
+      <c r="G184" s="49"/>
     </row>
     <row r="185" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C185" s="5"/>
       <c r="E185" s="35"/>
-      <c r="G185" s="35"/>
+      <c r="G185" s="49"/>
     </row>
     <row r="186" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C186" s="5"/>
       <c r="E186" s="35"/>
-      <c r="G186" s="35"/>
+      <c r="G186" s="49"/>
     </row>
     <row r="187" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C187" s="5"/>
       <c r="E187" s="35"/>
-      <c r="G187" s="35"/>
+      <c r="G187" s="49"/>
     </row>
     <row r="188" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C188" s="5"/>
       <c r="E188" s="35"/>
-      <c r="G188" s="35"/>
+      <c r="G188" s="49"/>
     </row>
     <row r="189" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C189" s="5"/>
       <c r="E189" s="35"/>
-      <c r="G189" s="35"/>
+      <c r="G189" s="49"/>
     </row>
     <row r="190" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C190" s="5"/>
       <c r="E190" s="35"/>
-      <c r="G190" s="35"/>
+      <c r="G190" s="49"/>
     </row>
     <row r="191" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C191" s="5"/>
       <c r="E191" s="35"/>
-      <c r="G191" s="35"/>
+      <c r="G191" s="49"/>
     </row>
     <row r="192" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C192" s="5"/>
       <c r="E192" s="35"/>
-      <c r="G192" s="35"/>
+      <c r="G192" s="49"/>
     </row>
     <row r="193" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C193" s="5"/>
       <c r="E193" s="35"/>
-      <c r="G193" s="35"/>
+      <c r="G193" s="49"/>
     </row>
     <row r="194" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C194" s="5"/>
       <c r="E194" s="35"/>
-      <c r="G194" s="35"/>
+      <c r="G194" s="49"/>
     </row>
     <row r="195" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C195" s="5"/>
       <c r="E195" s="35"/>
-      <c r="G195" s="35"/>
+      <c r="G195" s="49"/>
     </row>
     <row r="196" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C196" s="5"/>
       <c r="E196" s="35"/>
-      <c r="G196" s="35"/>
+      <c r="G196" s="49"/>
     </row>
     <row r="197" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C197" s="5"/>
       <c r="E197" s="35"/>
-      <c r="G197" s="35"/>
+      <c r="G197" s="49"/>
     </row>
     <row r="198" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C198" s="5"/>
       <c r="E198" s="35"/>
-      <c r="G198" s="35"/>
+      <c r="G198" s="49"/>
     </row>
     <row r="199" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C199" s="5"/>
       <c r="E199" s="35"/>
-      <c r="G199" s="35"/>
+      <c r="G199" s="49"/>
     </row>
     <row r="200" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C200" s="5"/>
       <c r="E200" s="35"/>
-      <c r="G200" s="35"/>
+      <c r="G200" s="49"/>
     </row>
     <row r="201" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C201" s="5"/>
       <c r="E201" s="35"/>
-      <c r="G201" s="35"/>
+      <c r="G201" s="49"/>
     </row>
     <row r="202" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C202" s="5"/>
       <c r="E202" s="35"/>
-      <c r="G202" s="35"/>
+      <c r="G202" s="49"/>
     </row>
     <row r="203" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C203" s="5"/>
       <c r="E203" s="35"/>
-      <c r="G203" s="35"/>
+      <c r="G203" s="49"/>
     </row>
     <row r="204" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C204" s="5"/>
       <c r="E204" s="35"/>
-      <c r="G204" s="35"/>
+      <c r="G204" s="49"/>
     </row>
     <row r="205" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C205" s="5"/>
       <c r="E205" s="35"/>
-      <c r="G205" s="35"/>
+      <c r="G205" s="49"/>
     </row>
     <row r="206" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C206" s="5"/>
       <c r="E206" s="35"/>
-      <c r="G206" s="35"/>
+      <c r="G206" s="49"/>
     </row>
     <row r="207" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C207" s="5"/>
       <c r="E207" s="35"/>
-      <c r="G207" s="35"/>
+      <c r="G207" s="49"/>
     </row>
     <row r="208" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C208" s="5"/>
       <c r="E208" s="35"/>
-      <c r="G208" s="35"/>
+      <c r="G208" s="49"/>
     </row>
     <row r="209" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C209" s="5"/>
       <c r="E209" s="35"/>
-      <c r="G209" s="35"/>
+      <c r="G209" s="49"/>
     </row>
     <row r="210" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C210" s="5"/>
       <c r="E210" s="35"/>
-      <c r="G210" s="35"/>
+      <c r="G210" s="49"/>
     </row>
     <row r="211" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C211" s="5"/>
       <c r="E211" s="35"/>
-      <c r="G211" s="35"/>
+      <c r="G211" s="49"/>
     </row>
     <row r="212" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C212" s="5"/>
       <c r="E212" s="35"/>
-      <c r="G212" s="35"/>
+      <c r="G212" s="49"/>
     </row>
     <row r="213" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C213" s="5"/>
       <c r="E213" s="35"/>
-      <c r="G213" s="35"/>
+      <c r="G213" s="49"/>
     </row>
     <row r="214" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C214" s="5"/>
       <c r="E214" s="35"/>
-      <c r="G214" s="35"/>
+      <c r="G214" s="49"/>
     </row>
     <row r="215" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C215" s="5"/>
       <c r="E215" s="35"/>
-      <c r="G215" s="35"/>
+      <c r="G215" s="49"/>
     </row>
     <row r="216" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C216" s="5"/>
       <c r="E216" s="35"/>
-      <c r="G216" s="35"/>
+      <c r="G216" s="49"/>
     </row>
     <row r="217" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C217" s="5"/>
       <c r="E217" s="35"/>
-      <c r="G217" s="35"/>
+      <c r="G217" s="49"/>
     </row>
     <row r="218" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C218" s="5"/>
       <c r="E218" s="35"/>
-      <c r="G218" s="35"/>
+      <c r="G218" s="49"/>
     </row>
     <row r="219" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C219" s="5"/>
       <c r="E219" s="35"/>
-      <c r="G219" s="35"/>
+      <c r="G219" s="49"/>
     </row>
     <row r="220" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C220" s="5"/>
       <c r="E220" s="35"/>
-      <c r="G220" s="35"/>
+      <c r="G220" s="49"/>
     </row>
     <row r="221" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C221" s="5"/>
       <c r="E221" s="35"/>
-      <c r="G221" s="35"/>
+      <c r="G221" s="49"/>
     </row>
     <row r="222" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C222" s="5"/>
       <c r="E222" s="35"/>
-      <c r="G222" s="35"/>
+      <c r="G222" s="49"/>
     </row>
     <row r="223" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C223" s="5"/>
       <c r="E223" s="35"/>
-      <c r="G223" s="35"/>
+      <c r="G223" s="49"/>
     </row>
     <row r="224" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C224" s="5"/>
       <c r="E224" s="35"/>
-      <c r="G224" s="35"/>
+      <c r="G224" s="49"/>
     </row>
     <row r="225" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C225" s="5"/>
       <c r="E225" s="35"/>
-      <c r="G225" s="35"/>
+      <c r="G225" s="49"/>
     </row>
     <row r="226" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C226" s="5"/>
       <c r="E226" s="35"/>
-      <c r="G226" s="35"/>
+      <c r="G226" s="49"/>
     </row>
     <row r="227" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C227" s="5"/>
       <c r="E227" s="35"/>
-      <c r="G227" s="35"/>
+      <c r="G227" s="49"/>
     </row>
     <row r="228" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C228" s="5"/>
       <c r="E228" s="35"/>
-      <c r="G228" s="35"/>
+      <c r="G228" s="49"/>
     </row>
     <row r="229" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C229" s="5"/>
       <c r="E229" s="35"/>
-      <c r="G229" s="35"/>
+      <c r="G229" s="49"/>
     </row>
     <row r="230" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C230" s="5"/>
       <c r="E230" s="35"/>
-      <c r="G230" s="35"/>
+      <c r="G230" s="49"/>
     </row>
     <row r="231" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C231" s="5"/>
       <c r="E231" s="35"/>
-      <c r="G231" s="35"/>
+      <c r="G231" s="49"/>
     </row>
     <row r="232" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C232" s="5"/>
       <c r="E232" s="35"/>
-      <c r="G232" s="35"/>
+      <c r="G232" s="49"/>
     </row>
     <row r="233" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C233" s="5"/>
       <c r="E233" s="35"/>
-      <c r="G233" s="35"/>
+      <c r="G233" s="49"/>
     </row>
     <row r="234" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C234" s="5"/>
       <c r="E234" s="35"/>
-      <c r="G234" s="35"/>
+      <c r="G234" s="49"/>
     </row>
     <row r="235" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C235" s="5"/>
       <c r="E235" s="35"/>
-      <c r="G235" s="35"/>
+      <c r="G235" s="49"/>
     </row>
     <row r="236" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C236" s="5"/>
       <c r="E236" s="35"/>
-      <c r="G236" s="35"/>
+      <c r="G236" s="49"/>
     </row>
     <row r="237" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C237" s="5"/>
       <c r="E237" s="35"/>
-      <c r="G237" s="35"/>
+      <c r="G237" s="49"/>
     </row>
     <row r="238" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C238" s="5"/>
       <c r="E238" s="35"/>
-      <c r="G238" s="35"/>
+      <c r="G238" s="49"/>
     </row>
     <row r="239" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C239" s="5"/>
       <c r="E239" s="35"/>
-      <c r="G239" s="35"/>
+      <c r="G239" s="49"/>
     </row>
     <row r="240" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C240" s="5"/>
       <c r="E240" s="35"/>
-      <c r="G240" s="35"/>
+      <c r="G240" s="49"/>
     </row>
     <row r="241" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C241" s="5"/>
       <c r="E241" s="35"/>
-      <c r="G241" s="35"/>
+      <c r="G241" s="49"/>
     </row>
     <row r="242" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C242" s="5"/>
       <c r="E242" s="35"/>
-      <c r="G242" s="35"/>
+      <c r="G242" s="49"/>
     </row>
     <row r="243" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C243" s="5"/>
       <c r="E243" s="35"/>
-      <c r="G243" s="35"/>
+      <c r="G243" s="49"/>
     </row>
     <row r="244" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C244" s="5"/>
       <c r="E244" s="35"/>
-      <c r="G244" s="35"/>
+      <c r="G244" s="49"/>
     </row>
     <row r="245" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C245" s="5"/>
       <c r="E245" s="35"/>
-      <c r="G245" s="35"/>
+      <c r="G245" s="49"/>
     </row>
     <row r="246" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C246" s="5"/>
       <c r="E246" s="35"/>
-      <c r="G246" s="35"/>
+      <c r="G246" s="49"/>
     </row>
     <row r="247" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C247" s="5"/>
       <c r="E247" s="35"/>
-      <c r="G247" s="35"/>
+      <c r="G247" s="49"/>
     </row>
     <row r="248" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C248" s="5"/>
       <c r="E248" s="35"/>
-      <c r="G248" s="35"/>
+      <c r="G248" s="49"/>
     </row>
     <row r="249" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C249" s="5"/>
       <c r="E249" s="35"/>
-      <c r="G249" s="35"/>
+      <c r="G249" s="49"/>
     </row>
     <row r="250" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C250" s="5"/>
       <c r="E250" s="35"/>
-      <c r="G250" s="35"/>
+      <c r="G250" s="49"/>
     </row>
     <row r="251" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C251" s="5"/>
       <c r="E251" s="35"/>
-      <c r="G251" s="35"/>
+      <c r="G251" s="49"/>
     </row>
     <row r="252" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C252" s="5"/>
       <c r="E252" s="35"/>
-      <c r="G252" s="35"/>
+      <c r="G252" s="49"/>
     </row>
     <row r="253" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C253" s="5"/>
       <c r="E253" s="35"/>
-      <c r="G253" s="35"/>
+      <c r="G253" s="49"/>
     </row>
     <row r="254" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C254" s="5"/>
       <c r="E254" s="35"/>
-      <c r="G254" s="35"/>
+      <c r="G254" s="49"/>
     </row>
     <row r="255" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C255" s="5"/>
       <c r="E255" s="35"/>
-      <c r="G255" s="35"/>
+      <c r="G255" s="49"/>
     </row>
     <row r="256" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C256" s="5"/>
       <c r="E256" s="35"/>
-      <c r="G256" s="35"/>
+      <c r="G256" s="49"/>
     </row>
     <row r="257" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C257" s="5"/>
       <c r="E257" s="35"/>
-      <c r="G257" s="35"/>
+      <c r="G257" s="49"/>
     </row>
     <row r="258" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C258" s="5"/>
       <c r="E258" s="35"/>
-      <c r="G258" s="35"/>
+      <c r="G258" s="49"/>
     </row>
     <row r="259" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C259" s="5"/>
       <c r="E259" s="35"/>
-      <c r="G259" s="35"/>
+      <c r="G259" s="49"/>
     </row>
     <row r="260" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C260" s="5"/>
       <c r="E260" s="35"/>
-      <c r="G260" s="35"/>
+      <c r="G260" s="49"/>
     </row>
     <row r="261" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C261" s="5"/>
       <c r="E261" s="35"/>
-      <c r="G261" s="35"/>
+      <c r="G261" s="49"/>
     </row>
     <row r="262" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C262" s="5"/>
       <c r="E262" s="35"/>
-      <c r="G262" s="35"/>
+      <c r="G262" s="49"/>
     </row>
     <row r="263" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C263" s="5"/>
       <c r="E263" s="35"/>
-      <c r="G263" s="35"/>
+      <c r="G263" s="49"/>
     </row>
     <row r="264" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C264" s="5"/>
       <c r="E264" s="35"/>
-      <c r="G264" s="35"/>
+      <c r="G264" s="49"/>
     </row>
     <row r="265" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C265" s="5"/>
       <c r="E265" s="35"/>
-      <c r="G265" s="35"/>
+      <c r="G265" s="49"/>
     </row>
     <row r="266" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C266" s="5"/>
       <c r="E266" s="35"/>
-      <c r="G266" s="35"/>
+      <c r="G266" s="49"/>
     </row>
     <row r="267" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C267" s="5"/>
       <c r="E267" s="35"/>
-      <c r="G267" s="35"/>
+      <c r="G267" s="49"/>
     </row>
     <row r="268" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C268" s="5"/>
       <c r="E268" s="35"/>
-      <c r="G268" s="35"/>
+      <c r="G268" s="49"/>
     </row>
     <row r="269" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C269" s="5"/>
       <c r="E269" s="35"/>
-      <c r="G269" s="35"/>
+      <c r="G269" s="49"/>
     </row>
     <row r="270" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C270" s="5"/>
       <c r="E270" s="35"/>
-      <c r="G270" s="35"/>
+      <c r="G270" s="49"/>
     </row>
     <row r="271" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C271" s="5"/>
       <c r="E271" s="35"/>
-      <c r="G271" s="35"/>
+      <c r="G271" s="49"/>
     </row>
     <row r="272" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C272" s="5"/>
       <c r="E272" s="35"/>
-      <c r="G272" s="35"/>
+      <c r="G272" s="49"/>
     </row>
     <row r="273" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C273" s="5"/>
       <c r="E273" s="35"/>
-      <c r="G273" s="35"/>
+      <c r="G273" s="49"/>
     </row>
     <row r="274" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C274" s="5"/>
       <c r="E274" s="35"/>
-      <c r="G274" s="35"/>
+      <c r="G274" s="49"/>
     </row>
     <row r="275" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C275" s="5"/>
       <c r="E275" s="35"/>
-      <c r="G275" s="35"/>
+      <c r="G275" s="49"/>
     </row>
     <row r="276" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C276" s="5"/>
       <c r="E276" s="35"/>
-      <c r="G276" s="35"/>
+      <c r="G276" s="49"/>
     </row>
     <row r="277" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C277" s="5"/>
       <c r="E277" s="35"/>
-      <c r="G277" s="35"/>
+      <c r="G277" s="49"/>
     </row>
     <row r="278" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C278" s="5"/>
       <c r="E278" s="35"/>
-      <c r="G278" s="35"/>
+      <c r="G278" s="49"/>
     </row>
     <row r="279" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C279" s="5"/>
       <c r="E279" s="35"/>
-      <c r="G279" s="35"/>
+      <c r="G279" s="49"/>
     </row>
     <row r="280" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C280" s="5"/>
       <c r="E280" s="35"/>
-      <c r="G280" s="35"/>
+      <c r="G280" s="49"/>
     </row>
     <row r="281" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C281" s="5"/>
       <c r="E281" s="35"/>
-      <c r="G281" s="35"/>
+      <c r="G281" s="49"/>
     </row>
     <row r="282" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C282" s="5"/>
       <c r="E282" s="35"/>
-      <c r="G282" s="35"/>
+      <c r="G282" s="49"/>
     </row>
     <row r="283" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C283" s="5"/>
       <c r="E283" s="35"/>
-      <c r="G283" s="35"/>
+      <c r="G283" s="49"/>
     </row>
     <row r="284" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C284" s="5"/>
       <c r="E284" s="35"/>
-      <c r="G284" s="35"/>
+      <c r="G284" s="49"/>
     </row>
     <row r="285" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C285" s="5"/>
       <c r="E285" s="35"/>
-      <c r="G285" s="35"/>
+      <c r="G285" s="49"/>
     </row>
     <row r="286" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C286" s="5"/>
       <c r="E286" s="35"/>
-      <c r="G286" s="35"/>
+      <c r="G286" s="49"/>
     </row>
     <row r="287" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C287" s="5"/>
       <c r="E287" s="35"/>
-      <c r="G287" s="35"/>
+      <c r="G287" s="49"/>
     </row>
     <row r="288" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C288" s="5"/>
       <c r="E288" s="35"/>
-      <c r="G288" s="35"/>
+      <c r="G288" s="49"/>
     </row>
     <row r="289" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C289" s="5"/>
       <c r="E289" s="35"/>
-      <c r="G289" s="35"/>
+      <c r="G289" s="49"/>
     </row>
     <row r="290" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C290" s="5"/>
       <c r="E290" s="35"/>
-      <c r="G290" s="35"/>
+      <c r="G290" s="49"/>
     </row>
     <row r="291" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C291" s="5"/>
       <c r="E291" s="35"/>
-      <c r="G291" s="35"/>
+      <c r="G291" s="49"/>
     </row>
     <row r="292" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C292" s="5"/>
       <c r="E292" s="35"/>
-      <c r="G292" s="35"/>
+      <c r="G292" s="49"/>
     </row>
     <row r="293" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C293" s="5"/>
       <c r="E293" s="35"/>
-      <c r="G293" s="35"/>
+      <c r="G293" s="49"/>
     </row>
     <row r="294" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C294" s="5"/>
       <c r="E294" s="35"/>
-      <c r="G294" s="35"/>
+      <c r="G294" s="49"/>
     </row>
     <row r="295" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C295" s="5"/>
       <c r="E295" s="35"/>
-      <c r="G295" s="35"/>
+      <c r="G295" s="49"/>
     </row>
     <row r="296" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C296" s="5"/>
       <c r="E296" s="35"/>
-      <c r="G296" s="35"/>
+      <c r="G296" s="49"/>
     </row>
     <row r="297" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C297" s="5"/>
       <c r="E297" s="35"/>
-      <c r="G297" s="35"/>
+      <c r="G297" s="49"/>
     </row>
     <row r="298" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C298" s="5"/>
       <c r="E298" s="35"/>
-      <c r="G298" s="35"/>
+      <c r="G298" s="49"/>
     </row>
     <row r="299" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C299" s="5"/>
       <c r="E299" s="35"/>
-      <c r="G299" s="35"/>
+      <c r="G299" s="49"/>
     </row>
     <row r="300" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C300" s="5"/>
       <c r="E300" s="35"/>
-      <c r="G300" s="35"/>
+      <c r="G300" s="49"/>
     </row>
     <row r="301" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C301" s="5"/>
       <c r="E301" s="35"/>
-      <c r="G301" s="35"/>
+      <c r="G301" s="49"/>
     </row>
     <row r="302" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C302" s="5"/>
       <c r="E302" s="35"/>
-      <c r="G302" s="35"/>
+      <c r="G302" s="49"/>
     </row>
     <row r="303" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C303" s="5"/>
       <c r="E303" s="35"/>
-      <c r="G303" s="35"/>
+      <c r="G303" s="49"/>
     </row>
     <row r="304" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C304" s="5"/>
       <c r="E304" s="35"/>
-      <c r="G304" s="35"/>
+      <c r="G304" s="49"/>
     </row>
     <row r="305" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C305" s="5"/>
       <c r="E305" s="35"/>
-      <c r="G305" s="35"/>
+      <c r="G305" s="49"/>
     </row>
     <row r="306" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C306" s="5"/>
       <c r="E306" s="35"/>
-      <c r="G306" s="35"/>
+      <c r="G306" s="49"/>
     </row>
     <row r="307" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C307" s="5"/>
       <c r="E307" s="35"/>
-      <c r="G307" s="35"/>
+      <c r="G307" s="49"/>
     </row>
     <row r="308" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C308" s="5"/>
       <c r="E308" s="35"/>
-      <c r="G308" s="35"/>
+      <c r="G308" s="49"/>
     </row>
     <row r="309" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C309" s="5"/>
       <c r="E309" s="35"/>
-      <c r="G309" s="35"/>
+      <c r="G309" s="49"/>
     </row>
     <row r="310" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C310" s="5"/>
       <c r="E310" s="35"/>
-      <c r="G310" s="35"/>
+      <c r="G310" s="49"/>
     </row>
     <row r="311" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C311" s="5"/>
       <c r="E311" s="35"/>
-      <c r="G311" s="35"/>
+      <c r="G311" s="49"/>
     </row>
     <row r="312" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C312" s="5"/>
       <c r="E312" s="35"/>
-      <c r="G312" s="35"/>
+      <c r="G312" s="49"/>
     </row>
     <row r="313" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C313" s="5"/>
       <c r="E313" s="35"/>
-      <c r="G313" s="35"/>
+      <c r="G313" s="49"/>
     </row>
     <row r="314" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C314" s="5"/>
       <c r="E314" s="35"/>
-      <c r="G314" s="35"/>
+      <c r="G314" s="49"/>
     </row>
     <row r="315" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C315" s="5"/>
       <c r="E315" s="35"/>
-      <c r="G315" s="35"/>
+      <c r="G315" s="49"/>
     </row>
     <row r="316" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C316" s="5"/>
       <c r="E316" s="35"/>
-      <c r="G316" s="35"/>
+      <c r="G316" s="49"/>
     </row>
     <row r="317" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C317" s="5"/>
       <c r="E317" s="35"/>
-      <c r="G317" s="35"/>
+      <c r="G317" s="49"/>
     </row>
     <row r="318" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C318" s="5"/>
       <c r="E318" s="35"/>
-      <c r="G318" s="35"/>
+      <c r="G318" s="49"/>
     </row>
     <row r="319" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C319" s="5"/>
       <c r="E319" s="35"/>
-      <c r="G319" s="35"/>
+      <c r="G319" s="49"/>
     </row>
     <row r="320" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C320" s="5"/>
       <c r="E320" s="35"/>
-      <c r="G320" s="35"/>
+      <c r="G320" s="49"/>
     </row>
     <row r="321" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C321" s="5"/>
       <c r="E321" s="35"/>
-      <c r="G321" s="35"/>
+      <c r="G321" s="49"/>
     </row>
     <row r="322" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C322" s="5"/>
       <c r="E322" s="35"/>
-      <c r="G322" s="35"/>
+      <c r="G322" s="49"/>
     </row>
     <row r="323" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C323" s="5"/>
       <c r="E323" s="35"/>
-      <c r="G323" s="35"/>
+      <c r="G323" s="49"/>
     </row>
     <row r="324" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C324" s="5"/>
       <c r="E324" s="35"/>
-      <c r="G324" s="35"/>
+      <c r="G324" s="49"/>
     </row>
     <row r="325" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C325" s="5"/>
       <c r="E325" s="35"/>
-      <c r="G325" s="35"/>
+      <c r="G325" s="49"/>
     </row>
     <row r="326" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C326" s="5"/>
       <c r="E326" s="35"/>
-      <c r="G326" s="35"/>
+      <c r="G326" s="49"/>
     </row>
     <row r="327" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C327" s="5"/>
       <c r="E327" s="35"/>
-      <c r="G327" s="35"/>
+      <c r="G327" s="49"/>
     </row>
     <row r="328" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C328" s="5"/>
       <c r="E328" s="35"/>
-      <c r="G328" s="35"/>
+      <c r="G328" s="49"/>
     </row>
     <row r="329" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C329" s="5"/>
       <c r="E329" s="35"/>
-      <c r="G329" s="35"/>
+      <c r="G329" s="49"/>
     </row>
     <row r="330" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C330" s="5"/>
       <c r="E330" s="35"/>
-      <c r="G330" s="35"/>
+      <c r="G330" s="49"/>
     </row>
     <row r="331" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C331" s="5"/>
       <c r="E331" s="35"/>
-      <c r="G331" s="35"/>
+      <c r="G331" s="49"/>
     </row>
     <row r="332" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C332" s="5"/>
       <c r="E332" s="35"/>
-      <c r="G332" s="35"/>
+      <c r="G332" s="49"/>
     </row>
     <row r="333" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C333" s="5"/>
       <c r="E333" s="35"/>
-      <c r="G333" s="35"/>
+      <c r="G333" s="49"/>
     </row>
     <row r="334" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C334" s="5"/>
       <c r="E334" s="35"/>
-      <c r="G334" s="35"/>
+      <c r="G334" s="49"/>
     </row>
     <row r="335" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C335" s="5"/>
       <c r="E335" s="35"/>
-      <c r="G335" s="35"/>
+      <c r="G335" s="49"/>
     </row>
     <row r="336" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C336" s="5"/>
       <c r="E336" s="35"/>
-      <c r="G336" s="35"/>
+      <c r="G336" s="49"/>
     </row>
     <row r="337" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C337" s="5"/>
       <c r="E337" s="35"/>
-      <c r="G337" s="35"/>
+      <c r="G337" s="49"/>
     </row>
     <row r="338" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C338" s="5"/>
       <c r="E338" s="35"/>
-      <c r="G338" s="35"/>
+      <c r="G338" s="49"/>
     </row>
     <row r="339" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C339" s="5"/>
       <c r="E339" s="35"/>
-      <c r="G339" s="35"/>
+      <c r="G339" s="49"/>
     </row>
     <row r="340" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C340" s="5"/>
       <c r="E340" s="35"/>
-      <c r="G340" s="35"/>
+      <c r="G340" s="49"/>
     </row>
     <row r="341" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C341" s="5"/>
       <c r="E341" s="35"/>
-      <c r="G341" s="35"/>
+      <c r="G341" s="49"/>
     </row>
     <row r="342" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C342" s="5"/>
       <c r="E342" s="35"/>
-      <c r="G342" s="35"/>
+      <c r="G342" s="49"/>
     </row>
     <row r="343" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C343" s="5"/>
       <c r="E343" s="35"/>
-      <c r="G343" s="35"/>
+      <c r="G343" s="49"/>
     </row>
     <row r="344" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C344" s="5"/>
       <c r="E344" s="35"/>
-      <c r="G344" s="35"/>
+      <c r="G344" s="49"/>
     </row>
     <row r="345" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C345" s="5"/>
       <c r="E345" s="35"/>
-      <c r="G345" s="35"/>
+      <c r="G345" s="49"/>
     </row>
     <row r="346" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C346" s="5"/>
       <c r="E346" s="35"/>
-      <c r="G346" s="35"/>
+      <c r="G346" s="49"/>
     </row>
     <row r="347" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C347" s="5"/>
       <c r="E347" s="35"/>
-      <c r="G347" s="35"/>
+      <c r="G347" s="49"/>
     </row>
     <row r="348" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C348" s="5"/>
       <c r="E348" s="35"/>
-      <c r="G348" s="35"/>
+      <c r="G348" s="49"/>
     </row>
     <row r="349" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C349" s="5"/>
       <c r="E349" s="35"/>
-      <c r="G349" s="35"/>
+      <c r="G349" s="49"/>
     </row>
     <row r="350" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C350" s="5"/>
       <c r="E350" s="35"/>
-      <c r="G350" s="35"/>
+      <c r="G350" s="49"/>
     </row>
     <row r="351" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C351" s="5"/>
       <c r="E351" s="35"/>
-      <c r="G351" s="35"/>
+      <c r="G351" s="49"/>
     </row>
     <row r="352" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C352" s="5"/>
       <c r="E352" s="35"/>
-      <c r="G352" s="35"/>
+      <c r="G352" s="49"/>
     </row>
     <row r="353" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C353" s="5"/>
       <c r="E353" s="35"/>
-      <c r="G353" s="35"/>
+      <c r="G353" s="49"/>
     </row>
     <row r="354" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C354" s="5"/>
       <c r="E354" s="35"/>
-      <c r="G354" s="35"/>
+      <c r="G354" s="49"/>
     </row>
     <row r="355" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C355" s="5"/>
       <c r="E355" s="35"/>
-      <c r="G355" s="35"/>
+      <c r="G355" s="49"/>
     </row>
     <row r="356" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C356" s="5"/>
       <c r="E356" s="35"/>
-      <c r="G356" s="35"/>
+      <c r="G356" s="49"/>
     </row>
     <row r="357" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C357" s="5"/>
       <c r="E357" s="35"/>
-      <c r="G357" s="35"/>
+      <c r="G357" s="49"/>
     </row>
     <row r="358" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C358" s="5"/>
       <c r="E358" s="35"/>
-      <c r="G358" s="35"/>
+      <c r="G358" s="49"/>
     </row>
     <row r="359" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C359" s="5"/>
       <c r="E359" s="35"/>
-      <c r="G359" s="35"/>
+      <c r="G359" s="49"/>
     </row>
     <row r="360" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C360" s="5"/>
       <c r="E360" s="35"/>
-      <c r="G360" s="35"/>
+      <c r="G360" s="49"/>
     </row>
     <row r="361" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C361" s="5"/>
       <c r="E361" s="35"/>
-      <c r="G361" s="35"/>
+      <c r="G361" s="49"/>
     </row>
     <row r="362" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C362" s="5"/>
       <c r="E362" s="35"/>
-      <c r="G362" s="35"/>
+      <c r="G362" s="49"/>
     </row>
     <row r="363" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C363" s="5"/>
       <c r="E363" s="35"/>
-      <c r="G363" s="35"/>
+      <c r="G363" s="49"/>
     </row>
     <row r="364" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C364" s="5"/>
       <c r="E364" s="35"/>
-      <c r="G364" s="35"/>
+      <c r="G364" s="49"/>
     </row>
     <row r="365" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C365" s="5"/>
       <c r="E365" s="35"/>
-      <c r="G365" s="35"/>
+      <c r="G365" s="49"/>
     </row>
     <row r="366" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C366" s="5"/>
       <c r="E366" s="35"/>
-      <c r="G366" s="35"/>
+      <c r="G366" s="49"/>
     </row>
     <row r="367" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C367" s="5"/>
       <c r="E367" s="35"/>
-      <c r="G367" s="35"/>
+      <c r="G367" s="49"/>
     </row>
     <row r="368" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C368" s="5"/>
       <c r="E368" s="35"/>
-      <c r="G368" s="35"/>
+      <c r="G368" s="49"/>
     </row>
     <row r="369" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C369" s="5"/>
       <c r="E369" s="35"/>
-      <c r="G369" s="35"/>
+      <c r="G369" s="49"/>
     </row>
     <row r="370" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C370" s="5"/>
       <c r="E370" s="35"/>
-      <c r="G370" s="35"/>
+      <c r="G370" s="49"/>
     </row>
     <row r="371" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C371" s="5"/>
       <c r="E371" s="35"/>
-      <c r="G371" s="35"/>
+      <c r="G371" s="49"/>
     </row>
     <row r="372" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C372" s="5"/>
       <c r="E372" s="35"/>
-      <c r="G372" s="35"/>
+      <c r="G372" s="49"/>
     </row>
     <row r="373" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C373" s="5"/>
       <c r="E373" s="35"/>
-      <c r="G373" s="35"/>
+      <c r="G373" s="49"/>
     </row>
     <row r="374" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C374" s="5"/>
       <c r="E374" s="35"/>
-      <c r="G374" s="35"/>
+      <c r="G374" s="49"/>
     </row>
     <row r="375" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C375" s="5"/>
       <c r="E375" s="35"/>
-      <c r="G375" s="35"/>
+      <c r="G375" s="49"/>
     </row>
     <row r="376" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C376" s="5"/>
       <c r="E376" s="35"/>
-      <c r="G376" s="35"/>
+      <c r="G376" s="49"/>
     </row>
     <row r="377" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C377" s="5"/>
       <c r="E377" s="35"/>
-      <c r="G377" s="35"/>
+      <c r="G377" s="49"/>
     </row>
     <row r="378" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C378" s="5"/>
       <c r="E378" s="35"/>
-      <c r="G378" s="35"/>
+      <c r="G378" s="49"/>
     </row>
     <row r="379" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C379" s="5"/>
       <c r="E379" s="35"/>
-      <c r="G379" s="35"/>
+      <c r="G379" s="49"/>
     </row>
     <row r="380" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C380" s="5"/>
       <c r="E380" s="35"/>
-      <c r="G380" s="35"/>
+      <c r="G380" s="49"/>
     </row>
     <row r="381" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C381" s="5"/>
       <c r="E381" s="35"/>
-      <c r="G381" s="35"/>
+      <c r="G381" s="49"/>
     </row>
     <row r="382" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C382" s="5"/>
       <c r="E382" s="35"/>
-      <c r="G382" s="35"/>
+      <c r="G382" s="49"/>
     </row>
     <row r="383" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C383" s="5"/>
       <c r="E383" s="35"/>
-      <c r="G383" s="35"/>
+      <c r="G383" s="49"/>
     </row>
     <row r="384" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C384" s="5"/>
       <c r="E384" s="35"/>
-      <c r="G384" s="35"/>
+      <c r="G384" s="49"/>
     </row>
     <row r="385" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C385" s="5"/>
       <c r="E385" s="35"/>
-      <c r="G385" s="35"/>
+      <c r="G385" s="49"/>
     </row>
     <row r="386" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C386" s="5"/>
       <c r="E386" s="35"/>
-      <c r="G386" s="35"/>
+      <c r="G386" s="49"/>
     </row>
     <row r="387" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C387" s="5"/>
       <c r="E387" s="35"/>
-      <c r="G387" s="35"/>
+      <c r="G387" s="49"/>
     </row>
     <row r="388" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C388" s="5"/>
       <c r="E388" s="35"/>
-      <c r="G388" s="35"/>
+      <c r="G388" s="49"/>
     </row>
     <row r="389" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C389" s="5"/>
       <c r="E389" s="35"/>
-      <c r="G389" s="35"/>
+      <c r="G389" s="49"/>
     </row>
     <row r="390" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C390" s="5"/>
       <c r="E390" s="35"/>
-      <c r="G390" s="35"/>
+      <c r="G390" s="49"/>
     </row>
     <row r="391" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C391" s="5"/>
       <c r="E391" s="35"/>
-      <c r="G391" s="35"/>
+      <c r="G391" s="49"/>
     </row>
     <row r="392" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C392" s="5"/>
       <c r="E392" s="35"/>
-      <c r="G392" s="35"/>
+      <c r="G392" s="49"/>
     </row>
     <row r="393" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C393" s="5"/>
       <c r="E393" s="35"/>
-      <c r="G393" s="35"/>
+      <c r="G393" s="49"/>
     </row>
     <row r="394" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C394" s="5"/>
       <c r="E394" s="35"/>
-      <c r="G394" s="35"/>
+      <c r="G394" s="49"/>
     </row>
     <row r="395" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C395" s="5"/>
       <c r="E395" s="35"/>
-      <c r="G395" s="35"/>
+      <c r="G395" s="49"/>
     </row>
     <row r="396" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C396" s="5"/>
       <c r="E396" s="35"/>
-      <c r="G396" s="35"/>
+      <c r="G396" s="49"/>
     </row>
     <row r="397" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C397" s="5"/>
       <c r="E397" s="35"/>
-      <c r="G397" s="35"/>
+      <c r="G397" s="49"/>
     </row>
     <row r="398" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C398" s="5"/>
       <c r="E398" s="35"/>
-      <c r="G398" s="35"/>
+      <c r="G398" s="49"/>
     </row>
     <row r="399" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C399" s="5"/>
       <c r="E399" s="35"/>
-      <c r="G399" s="35"/>
+      <c r="G399" s="49"/>
     </row>
     <row r="400" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C400" s="5"/>
       <c r="E400" s="35"/>
-      <c r="G400" s="35"/>
+      <c r="G400" s="49"/>
     </row>
     <row r="401" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C401" s="5"/>
       <c r="E401" s="35"/>
-      <c r="G401" s="35"/>
+      <c r="G401" s="49"/>
     </row>
     <row r="402" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C402" s="5"/>
       <c r="E402" s="35"/>
-      <c r="G402" s="35"/>
+      <c r="G402" s="49"/>
     </row>
     <row r="403" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C403" s="5"/>
       <c r="E403" s="35"/>
-      <c r="G403" s="35"/>
+      <c r="G403" s="49"/>
     </row>
     <row r="404" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C404" s="5"/>
       <c r="E404" s="35"/>
-      <c r="G404" s="35"/>
+      <c r="G404" s="49"/>
     </row>
     <row r="405" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C405" s="5"/>
       <c r="E405" s="35"/>
-      <c r="G405" s="35"/>
+      <c r="G405" s="49"/>
     </row>
     <row r="406" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C406" s="5"/>
       <c r="E406" s="35"/>
-      <c r="G406" s="35"/>
+      <c r="G406" s="49"/>
     </row>
     <row r="407" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C407" s="5"/>
       <c r="E407" s="35"/>
-      <c r="G407" s="35"/>
+      <c r="G407" s="49"/>
     </row>
     <row r="408" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C408" s="5"/>
       <c r="E408" s="35"/>
-      <c r="G408" s="35"/>
+      <c r="G408" s="49"/>
     </row>
     <row r="409" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C409" s="5"/>
       <c r="E409" s="35"/>
-      <c r="G409" s="35"/>
+      <c r="G409" s="49"/>
     </row>
     <row r="410" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C410" s="5"/>
       <c r="E410" s="35"/>
-      <c r="G410" s="35"/>
+      <c r="G410" s="49"/>
     </row>
     <row r="411" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C411" s="5"/>
       <c r="E411" s="35"/>
-      <c r="G411" s="35"/>
+      <c r="G411" s="49"/>
     </row>
     <row r="412" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C412" s="5"/>
       <c r="E412" s="35"/>
-      <c r="G412" s="35"/>
+      <c r="G412" s="49"/>
     </row>
     <row r="413" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C413" s="5"/>
       <c r="E413" s="35"/>
-      <c r="G413" s="35"/>
+      <c r="G413" s="49"/>
     </row>
     <row r="414" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C414" s="5"/>
       <c r="E414" s="35"/>
-      <c r="G414" s="35"/>
+      <c r="G414" s="49"/>
     </row>
     <row r="415" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C415" s="5"/>
       <c r="E415" s="35"/>
-      <c r="G415" s="35"/>
+      <c r="G415" s="49"/>
     </row>
     <row r="416" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C416" s="5"/>
       <c r="E416" s="35"/>
-      <c r="G416" s="35"/>
+      <c r="G416" s="49"/>
     </row>
     <row r="417" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C417" s="5"/>
       <c r="E417" s="35"/>
-      <c r="G417" s="35"/>
+      <c r="G417" s="49"/>
     </row>
     <row r="418" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C418" s="5"/>
       <c r="E418" s="35"/>
-      <c r="G418" s="35"/>
+      <c r="G418" s="49"/>
     </row>
     <row r="419" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C419" s="5"/>
       <c r="E419" s="35"/>
-      <c r="G419" s="35"/>
+      <c r="G419" s="49"/>
     </row>
     <row r="420" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C420" s="5"/>
       <c r="E420" s="35"/>
-      <c r="G420" s="35"/>
+      <c r="G420" s="49"/>
     </row>
     <row r="421" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C421" s="5"/>
       <c r="E421" s="35"/>
-      <c r="G421" s="35"/>
+      <c r="G421" s="49"/>
     </row>
     <row r="422" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C422" s="5"/>
       <c r="E422" s="35"/>
-      <c r="G422" s="35"/>
+      <c r="G422" s="49"/>
     </row>
     <row r="423" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C423" s="5"/>
       <c r="E423" s="35"/>
-      <c r="G423" s="35"/>
+      <c r="G423" s="49"/>
     </row>
     <row r="424" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C424" s="5"/>
       <c r="E424" s="35"/>
-      <c r="G424" s="35"/>
+      <c r="G424" s="49"/>
     </row>
     <row r="425" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C425" s="5"/>
       <c r="E425" s="35"/>
-      <c r="G425" s="35"/>
+      <c r="G425" s="49"/>
     </row>
     <row r="426" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C426" s="5"/>
       <c r="E426" s="35"/>
-      <c r="G426" s="35"/>
+      <c r="G426" s="49"/>
     </row>
     <row r="427" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C427" s="5"/>
       <c r="E427" s="35"/>
-      <c r="G427" s="35"/>
+      <c r="G427" s="49"/>
     </row>
     <row r="428" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C428" s="5"/>
       <c r="E428" s="35"/>
-      <c r="G428" s="35"/>
+      <c r="G428" s="49"/>
     </row>
     <row r="429" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C429" s="5"/>
       <c r="E429" s="35"/>
-      <c r="G429" s="35"/>
+      <c r="G429" s="49"/>
     </row>
     <row r="430" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C430" s="5"/>
       <c r="E430" s="35"/>
-      <c r="G430" s="35"/>
+      <c r="G430" s="49"/>
     </row>
     <row r="431" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C431" s="5"/>
       <c r="E431" s="35"/>
-      <c r="G431" s="35"/>
+      <c r="G431" s="49"/>
     </row>
     <row r="432" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C432" s="5"/>
       <c r="E432" s="35"/>
-      <c r="G432" s="35"/>
+      <c r="G432" s="49"/>
     </row>
     <row r="433" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C433" s="5"/>
       <c r="E433" s="35"/>
-      <c r="G433" s="35"/>
+      <c r="G433" s="49"/>
     </row>
     <row r="434" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C434" s="5"/>
       <c r="E434" s="35"/>
-      <c r="G434" s="35"/>
+      <c r="G434" s="49"/>
     </row>
     <row r="435" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C435" s="5"/>
       <c r="E435" s="35"/>
-      <c r="G435" s="35"/>
+      <c r="G435" s="49"/>
     </row>
     <row r="436" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C436" s="5"/>
       <c r="E436" s="35"/>
-      <c r="G436" s="35"/>
+      <c r="G436" s="49"/>
     </row>
     <row r="437" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C437" s="5"/>
       <c r="E437" s="35"/>
-      <c r="G437" s="35"/>
+      <c r="G437" s="49"/>
     </row>
     <row r="438" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C438" s="5"/>
       <c r="E438" s="35"/>
-      <c r="G438" s="35"/>
+      <c r="G438" s="49"/>
     </row>
     <row r="439" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C439" s="5"/>
       <c r="E439" s="35"/>
-      <c r="G439" s="35"/>
+      <c r="G439" s="49"/>
     </row>
     <row r="440" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C440" s="5"/>
       <c r="E440" s="35"/>
-      <c r="G440" s="35"/>
+      <c r="G440" s="49"/>
     </row>
     <row r="441" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C441" s="5"/>
       <c r="E441" s="35"/>
-      <c r="G441" s="35"/>
+      <c r="G441" s="49"/>
     </row>
     <row r="442" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C442" s="5"/>
       <c r="E442" s="35"/>
-      <c r="G442" s="35"/>
+      <c r="G442" s="49"/>
     </row>
     <row r="443" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C443" s="5"/>
       <c r="E443" s="35"/>
-      <c r="G443" s="35"/>
+      <c r="G443" s="49"/>
     </row>
     <row r="444" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C444" s="5"/>
       <c r="E444" s="35"/>
-      <c r="G444" s="35"/>
+      <c r="G444" s="49"/>
     </row>
     <row r="445" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C445" s="5"/>
       <c r="E445" s="35"/>
-      <c r="G445" s="35"/>
+      <c r="G445" s="49"/>
     </row>
     <row r="446" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C446" s="5"/>
       <c r="E446" s="35"/>
-      <c r="G446" s="35"/>
+      <c r="G446" s="49"/>
     </row>
     <row r="447" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C447" s="5"/>
       <c r="E447" s="35"/>
-      <c r="G447" s="35"/>
+      <c r="G447" s="49"/>
     </row>
     <row r="448" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C448" s="5"/>
       <c r="E448" s="35"/>
-      <c r="G448" s="35"/>
+      <c r="G448" s="49"/>
     </row>
     <row r="449" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C449" s="5"/>
       <c r="E449" s="35"/>
-      <c r="G449" s="35"/>
+      <c r="G449" s="49"/>
     </row>
     <row r="450" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C450" s="5"/>
       <c r="E450" s="35"/>
-      <c r="G450" s="35"/>
+      <c r="G450" s="49"/>
     </row>
     <row r="451" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C451" s="5"/>
       <c r="E451" s="35"/>
-      <c r="G451" s="35"/>
+      <c r="G451" s="49"/>
     </row>
     <row r="452" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C452" s="5"/>
       <c r="E452" s="35"/>
-      <c r="G452" s="35"/>
+      <c r="G452" s="49"/>
     </row>
     <row r="453" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C453" s="5"/>
       <c r="E453" s="35"/>
-      <c r="G453" s="35"/>
+      <c r="G453" s="49"/>
     </row>
     <row r="454" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C454" s="5"/>
       <c r="E454" s="35"/>
-      <c r="G454" s="35"/>
+      <c r="G454" s="49"/>
     </row>
     <row r="455" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C455" s="5"/>
       <c r="E455" s="35"/>
-      <c r="G455" s="35"/>
+      <c r="G455" s="49"/>
     </row>
     <row r="456" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C456" s="5"/>
       <c r="E456" s="35"/>
-      <c r="G456" s="35"/>
+      <c r="G456" s="49"/>
     </row>
     <row r="457" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C457" s="5"/>
       <c r="E457" s="35"/>
-      <c r="G457" s="35"/>
+      <c r="G457" s="49"/>
     </row>
     <row r="458" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C458" s="5"/>
       <c r="E458" s="35"/>
-      <c r="G458" s="35"/>
+      <c r="G458" s="49"/>
     </row>
     <row r="459" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C459" s="5"/>
       <c r="E459" s="35"/>
-      <c r="G459" s="35"/>
+      <c r="G459" s="49"/>
     </row>
     <row r="460" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C460" s="5"/>
       <c r="E460" s="35"/>
-      <c r="G460" s="35"/>
+      <c r="G460" s="49"/>
     </row>
     <row r="461" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C461" s="5"/>
       <c r="E461" s="35"/>
-      <c r="G461" s="35"/>
+      <c r="G461" s="49"/>
     </row>
     <row r="462" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C462" s="5"/>
       <c r="E462" s="35"/>
-      <c r="G462" s="35"/>
+      <c r="G462" s="49"/>
     </row>
     <row r="463" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C463" s="5"/>
       <c r="E463" s="35"/>
-      <c r="G463" s="35"/>
+      <c r="G463" s="49"/>
     </row>
     <row r="464" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C464" s="5"/>
       <c r="E464" s="35"/>
-      <c r="G464" s="35"/>
+      <c r="G464" s="49"/>
     </row>
     <row r="465" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C465" s="5"/>
       <c r="E465" s="35"/>
-      <c r="G465" s="35"/>
+      <c r="G465" s="49"/>
     </row>
     <row r="466" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C466" s="5"/>
       <c r="E466" s="35"/>
-      <c r="G466" s="35"/>
+      <c r="G466" s="49"/>
     </row>
     <row r="467" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C467" s="5"/>
       <c r="E467" s="35"/>
-      <c r="G467" s="35"/>
+      <c r="G467" s="49"/>
     </row>
     <row r="468" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C468" s="5"/>
       <c r="E468" s="35"/>
-      <c r="G468" s="35"/>
+      <c r="G468" s="49"/>
     </row>
     <row r="469" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C469" s="5"/>
       <c r="E469" s="35"/>
-      <c r="G469" s="35"/>
+      <c r="G469" s="49"/>
     </row>
     <row r="470" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C470" s="5"/>
       <c r="E470" s="35"/>
-      <c r="G470" s="35"/>
+      <c r="G470" s="49"/>
     </row>
     <row r="471" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C471" s="5"/>
       <c r="E471" s="35"/>
-      <c r="G471" s="35"/>
+      <c r="G471" s="49"/>
     </row>
     <row r="472" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C472" s="5"/>
       <c r="E472" s="35"/>
-      <c r="G472" s="35"/>
+      <c r="G472" s="49"/>
     </row>
     <row r="473" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C473" s="5"/>
       <c r="E473" s="35"/>
-      <c r="G473" s="35"/>
+      <c r="G473" s="49"/>
     </row>
     <row r="474" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C474" s="5"/>
       <c r="E474" s="35"/>
-      <c r="G474" s="35"/>
+      <c r="G474" s="49"/>
     </row>
     <row r="475" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C475" s="5"/>
       <c r="E475" s="35"/>
-      <c r="G475" s="35"/>
+      <c r="G475" s="49"/>
     </row>
     <row r="476" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C476" s="5"/>
       <c r="E476" s="35"/>
-      <c r="G476" s="35"/>
+      <c r="G476" s="49"/>
     </row>
     <row r="477" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C477" s="5"/>
       <c r="E477" s="35"/>
-      <c r="G477" s="35"/>
+      <c r="G477" s="49"/>
     </row>
     <row r="478" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C478" s="5"/>
       <c r="E478" s="35"/>
-      <c r="G478" s="35"/>
+      <c r="G478" s="49"/>
     </row>
     <row r="479" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C479" s="5"/>
       <c r="E479" s="35"/>
-      <c r="G479" s="35"/>
+      <c r="G479" s="49"/>
     </row>
     <row r="480" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C480" s="5"/>
       <c r="E480" s="35"/>
-      <c r="G480" s="35"/>
+      <c r="G480" s="49"/>
     </row>
     <row r="481" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C481" s="5"/>
       <c r="E481" s="35"/>
-      <c r="G481" s="35"/>
+      <c r="G481" s="49"/>
     </row>
     <row r="482" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C482" s="5"/>
       <c r="E482" s="35"/>
-      <c r="G482" s="35"/>
+      <c r="G482" s="49"/>
     </row>
     <row r="483" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C483" s="5"/>
       <c r="E483" s="35"/>
-      <c r="G483" s="35"/>
+      <c r="G483" s="49"/>
     </row>
     <row r="484" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C484" s="5"/>
       <c r="E484" s="35"/>
-      <c r="G484" s="35"/>
+      <c r="G484" s="49"/>
     </row>
     <row r="485" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C485" s="5"/>
       <c r="E485" s="35"/>
-      <c r="G485" s="35"/>
+      <c r="G485" s="49"/>
     </row>
     <row r="486" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C486" s="5"/>
       <c r="E486" s="35"/>
-      <c r="G486" s="35"/>
+      <c r="G486" s="49"/>
     </row>
     <row r="487" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C487" s="5"/>
       <c r="E487" s="35"/>
-      <c r="G487" s="35"/>
+      <c r="G487" s="49"/>
     </row>
     <row r="488" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C488" s="5"/>
       <c r="E488" s="35"/>
-      <c r="G488" s="35"/>
+      <c r="G488" s="49"/>
     </row>
     <row r="489" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C489" s="5"/>
       <c r="E489" s="35"/>
-      <c r="G489" s="35"/>
+      <c r="G489" s="49"/>
     </row>
     <row r="490" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C490" s="5"/>
       <c r="E490" s="35"/>
-      <c r="G490" s="35"/>
+      <c r="G490" s="49"/>
     </row>
     <row r="491" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C491" s="5"/>
       <c r="E491" s="35"/>
-      <c r="G491" s="35"/>
+      <c r="G491" s="49"/>
     </row>
     <row r="492" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C492" s="5"/>
       <c r="E492" s="35"/>
-      <c r="G492" s="35"/>
+      <c r="G492" s="49"/>
     </row>
     <row r="493" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C493" s="5"/>
       <c r="E493" s="35"/>
-      <c r="G493" s="35"/>
+      <c r="G493" s="49"/>
     </row>
     <row r="494" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C494" s="5"/>
       <c r="E494" s="35"/>
-      <c r="G494" s="35"/>
+      <c r="G494" s="49"/>
     </row>
     <row r="495" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C495" s="5"/>
       <c r="E495" s="35"/>
-      <c r="G495" s="35"/>
+      <c r="G495" s="49"/>
     </row>
     <row r="496" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C496" s="5"/>
       <c r="E496" s="35"/>
-      <c r="G496" s="35"/>
+      <c r="G496" s="49"/>
     </row>
     <row r="497" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C497" s="5"/>
       <c r="E497" s="35"/>
-      <c r="G497" s="35"/>
+      <c r="G497" s="49"/>
     </row>
     <row r="498" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C498" s="5"/>
       <c r="E498" s="35"/>
-      <c r="G498" s="35"/>
+      <c r="G498" s="49"/>
     </row>
     <row r="499" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C499" s="5"/>
       <c r="E499" s="35"/>
-      <c r="G499" s="35"/>
+      <c r="G499" s="49"/>
     </row>
     <row r="500" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C500" s="5"/>
       <c r="E500" s="35"/>
-      <c r="G500" s="35"/>
+      <c r="G500" s="49"/>
     </row>
     <row r="501" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C501" s="5"/>
       <c r="E501" s="35"/>
-      <c r="G501" s="35"/>
+      <c r="G501" s="49"/>
     </row>
     <row r="502" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C502" s="5"/>
       <c r="E502" s="35"/>
-      <c r="G502" s="35"/>
+      <c r="G502" s="49"/>
     </row>
     <row r="503" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C503" s="5"/>
       <c r="E503" s="35"/>
-      <c r="G503" s="35"/>
+      <c r="G503" s="49"/>
     </row>
     <row r="504" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C504" s="5"/>
       <c r="E504" s="35"/>
-      <c r="G504" s="35"/>
+      <c r="G504" s="49"/>
     </row>
     <row r="505" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C505" s="5"/>
       <c r="E505" s="35"/>
-      <c r="G505" s="35"/>
+      <c r="G505" s="49"/>
     </row>
     <row r="506" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C506" s="5"/>
       <c r="E506" s="35"/>
-      <c r="G506" s="35"/>
+      <c r="G506" s="49"/>
     </row>
     <row r="507" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C507" s="5"/>
       <c r="E507" s="35"/>
-      <c r="G507" s="35"/>
+      <c r="G507" s="49"/>
     </row>
     <row r="508" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C508" s="5"/>
       <c r="E508" s="35"/>
-      <c r="G508" s="35"/>
+      <c r="G508" s="49"/>
     </row>
     <row r="509" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C509" s="5"/>
       <c r="E509" s="35"/>
-      <c r="G509" s="35"/>
+      <c r="G509" s="49"/>
     </row>
     <row r="510" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C510" s="5"/>
       <c r="E510" s="35"/>
-      <c r="G510" s="35"/>
+      <c r="G510" s="49"/>
     </row>
     <row r="511" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C511" s="5"/>
       <c r="E511" s="35"/>
-      <c r="G511" s="35"/>
+      <c r="G511" s="49"/>
     </row>
     <row r="512" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C512" s="5"/>
       <c r="E512" s="35"/>
-      <c r="G512" s="35"/>
+      <c r="G512" s="49"/>
     </row>
     <row r="513" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C513" s="5"/>
       <c r="E513" s="35"/>
-      <c r="G513" s="35"/>
+      <c r="G513" s="49"/>
     </row>
     <row r="514" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C514" s="5"/>
       <c r="E514" s="35"/>
-      <c r="G514" s="35"/>
+      <c r="G514" s="49"/>
     </row>
     <row r="515" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C515" s="5"/>
       <c r="E515" s="35"/>
-      <c r="G515" s="35"/>
+      <c r="G515" s="49"/>
     </row>
     <row r="516" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C516" s="5"/>
       <c r="E516" s="35"/>
-      <c r="G516" s="35"/>
+      <c r="G516" s="49"/>
     </row>
     <row r="517" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C517" s="5"/>
       <c r="E517" s="35"/>
-      <c r="G517" s="35"/>
+      <c r="G517" s="49"/>
     </row>
     <row r="518" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C518" s="5"/>
       <c r="E518" s="35"/>
-      <c r="G518" s="35"/>
+      <c r="G518" s="49"/>
     </row>
     <row r="519" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C519" s="5"/>
       <c r="E519" s="35"/>
-      <c r="G519" s="35"/>
+      <c r="G519" s="49"/>
     </row>
     <row r="520" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C520" s="5"/>
       <c r="E520" s="35"/>
-      <c r="G520" s="35"/>
+      <c r="G520" s="49"/>
     </row>
     <row r="521" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C521" s="5"/>
       <c r="E521" s="35"/>
-      <c r="G521" s="35"/>
+      <c r="G521" s="49"/>
     </row>
     <row r="522" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C522" s="5"/>
       <c r="E522" s="35"/>
-      <c r="G522" s="35"/>
+      <c r="G522" s="49"/>
     </row>
     <row r="523" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C523" s="5"/>
       <c r="E523" s="35"/>
-      <c r="G523" s="35"/>
+      <c r="G523" s="49"/>
     </row>
     <row r="524" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C524" s="5"/>
       <c r="E524" s="35"/>
-      <c r="G524" s="35"/>
+      <c r="G524" s="49"/>
     </row>
     <row r="525" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C525" s="5"/>
       <c r="E525" s="35"/>
-      <c r="G525" s="35"/>
+      <c r="G525" s="49"/>
     </row>
     <row r="526" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C526" s="5"/>
       <c r="E526" s="35"/>
-      <c r="G526" s="35"/>
+      <c r="G526" s="49"/>
     </row>
     <row r="527" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C527" s="5"/>
       <c r="E527" s="35"/>
-      <c r="G527" s="35"/>
+      <c r="G527" s="49"/>
     </row>
     <row r="528" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C528" s="5"/>
       <c r="E528" s="35"/>
-      <c r="G528" s="35"/>
+      <c r="G528" s="49"/>
     </row>
     <row r="529" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C529" s="5"/>
       <c r="E529" s="35"/>
-      <c r="G529" s="35"/>
+      <c r="G529" s="49"/>
     </row>
     <row r="530" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C530" s="5"/>
       <c r="E530" s="35"/>
-      <c r="G530" s="35"/>
+      <c r="G530" s="49"/>
     </row>
     <row r="531" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C531" s="5"/>
       <c r="E531" s="35"/>
-      <c r="G531" s="35"/>
+      <c r="G531" s="49"/>
     </row>
     <row r="532" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C532" s="5"/>
       <c r="E532" s="35"/>
-      <c r="G532" s="35"/>
+      <c r="G532" s="49"/>
     </row>
     <row r="533" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C533" s="5"/>
       <c r="E533" s="35"/>
-      <c r="G533" s="35"/>
+      <c r="G533" s="49"/>
     </row>
     <row r="534" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C534" s="5"/>
       <c r="E534" s="35"/>
-      <c r="G534" s="35"/>
+      <c r="G534" s="49"/>
     </row>
     <row r="535" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C535" s="5"/>
       <c r="E535" s="35"/>
-      <c r="G535" s="35"/>
+      <c r="G535" s="49"/>
     </row>
     <row r="536" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C536" s="5"/>
       <c r="E536" s="35"/>
-      <c r="G536" s="35"/>
+      <c r="G536" s="49"/>
     </row>
     <row r="537" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C537" s="5"/>
       <c r="E537" s="35"/>
-      <c r="G537" s="35"/>
+      <c r="G537" s="49"/>
     </row>
     <row r="538" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C538" s="5"/>
       <c r="E538" s="35"/>
-      <c r="G538" s="35"/>
+      <c r="G538" s="49"/>
     </row>
     <row r="539" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C539" s="5"/>
       <c r="E539" s="35"/>
-      <c r="G539" s="35"/>
+      <c r="G539" s="49"/>
     </row>
     <row r="540" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C540" s="5"/>
       <c r="E540" s="35"/>
-      <c r="G540" s="35"/>
+      <c r="G540" s="49"/>
     </row>
     <row r="541" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C541" s="5"/>
       <c r="E541" s="35"/>
-      <c r="G541" s="35"/>
+      <c r="G541" s="49"/>
     </row>
     <row r="542" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C542" s="5"/>
       <c r="E542" s="35"/>
-      <c r="G542" s="35"/>
+      <c r="G542" s="49"/>
     </row>
     <row r="543" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C543" s="5"/>
       <c r="E543" s="35"/>
-      <c r="G543" s="35"/>
+      <c r="G543" s="49"/>
     </row>
     <row r="544" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C544" s="5"/>
       <c r="E544" s="35"/>
-      <c r="G544" s="35"/>
+      <c r="G544" s="49"/>
     </row>
     <row r="545" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C545" s="5"/>
       <c r="E545" s="35"/>
-      <c r="G545" s="35"/>
+      <c r="G545" s="49"/>
     </row>
     <row r="546" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C546" s="5"/>
       <c r="E546" s="35"/>
-      <c r="G546" s="35"/>
+      <c r="G546" s="49"/>
     </row>
     <row r="547" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C547" s="5"/>
       <c r="E547" s="35"/>
-      <c r="G547" s="35"/>
+      <c r="G547" s="49"/>
     </row>
     <row r="548" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C548" s="5"/>
       <c r="E548" s="35"/>
-      <c r="G548" s="35"/>
+      <c r="G548" s="49"/>
     </row>
     <row r="549" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C549" s="5"/>
       <c r="E549" s="35"/>
-      <c r="G549" s="35"/>
+      <c r="G549" s="49"/>
     </row>
     <row r="550" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C550" s="5"/>
       <c r="E550" s="35"/>
-      <c r="G550" s="35"/>
+      <c r="G550" s="49"/>
     </row>
     <row r="551" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C551" s="5"/>
       <c r="E551" s="35"/>
-      <c r="G551" s="35"/>
+      <c r="G551" s="49"/>
     </row>
     <row r="552" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C552" s="5"/>
       <c r="E552" s="35"/>
-      <c r="G552" s="35"/>
+      <c r="G552" s="49"/>
     </row>
     <row r="553" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C553" s="5"/>
       <c r="E553" s="35"/>
-      <c r="G553" s="35"/>
+      <c r="G553" s="49"/>
     </row>
     <row r="554" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C554" s="5"/>
       <c r="E554" s="35"/>
-      <c r="G554" s="35"/>
+      <c r="G554" s="49"/>
     </row>
     <row r="555" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C555" s="5"/>
       <c r="E555" s="35"/>
-      <c r="G555" s="35"/>
+      <c r="G555" s="49"/>
     </row>
     <row r="556" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C556" s="5"/>
       <c r="E556" s="35"/>
-      <c r="G556" s="35"/>
+      <c r="G556" s="49"/>
     </row>
     <row r="557" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C557" s="5"/>
       <c r="E557" s="35"/>
-      <c r="G557" s="35"/>
+      <c r="G557" s="49"/>
     </row>
     <row r="558" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C558" s="5"/>
       <c r="E558" s="35"/>
-      <c r="G558" s="35"/>
+      <c r="G558" s="49"/>
     </row>
     <row r="559" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C559" s="5"/>
       <c r="E559" s="35"/>
-      <c r="G559" s="35"/>
+      <c r="G559" s="49"/>
     </row>
     <row r="560" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C560" s="5"/>
       <c r="E560" s="35"/>
-      <c r="G560" s="35"/>
+      <c r="G560" s="49"/>
     </row>
     <row r="561" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C561" s="5"/>
       <c r="E561" s="35"/>
-      <c r="G561" s="35"/>
+      <c r="G561" s="49"/>
     </row>
     <row r="562" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C562" s="5"/>
       <c r="E562" s="35"/>
-      <c r="G562" s="35"/>
+      <c r="G562" s="49"/>
     </row>
     <row r="563" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C563" s="5"/>
       <c r="E563" s="35"/>
-      <c r="G563" s="35"/>
+      <c r="G563" s="49"/>
     </row>
     <row r="564" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C564" s="5"/>
       <c r="E564" s="35"/>
-      <c r="G564" s="35"/>
+      <c r="G564" s="49"/>
     </row>
     <row r="565" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C565" s="5"/>
       <c r="E565" s="35"/>
-      <c r="G565" s="35"/>
+      <c r="G565" s="49"/>
     </row>
     <row r="566" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C566" s="5"/>
       <c r="E566" s="35"/>
-      <c r="G566" s="35"/>
+      <c r="G566" s="49"/>
     </row>
     <row r="567" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C567" s="5"/>
       <c r="E567" s="35"/>
-      <c r="G567" s="35"/>
+      <c r="G567" s="49"/>
     </row>
     <row r="568" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C568" s="5"/>
       <c r="E568" s="35"/>
-      <c r="G568" s="35"/>
+      <c r="G568" s="49"/>
     </row>
     <row r="569" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C569" s="5"/>
       <c r="E569" s="35"/>
-      <c r="G569" s="35"/>
+      <c r="G569" s="49"/>
     </row>
     <row r="570" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C570" s="5"/>
       <c r="E570" s="35"/>
-      <c r="G570" s="35"/>
+      <c r="G570" s="49"/>
     </row>
     <row r="571" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C571" s="5"/>
       <c r="E571" s="35"/>
-      <c r="G571" s="35"/>
+      <c r="G571" s="49"/>
     </row>
     <row r="572" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C572" s="5"/>
       <c r="E572" s="35"/>
-      <c r="G572" s="35"/>
+      <c r="G572" s="49"/>
     </row>
     <row r="573" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C573" s="5"/>
       <c r="E573" s="35"/>
-      <c r="G573" s="35"/>
+      <c r="G573" s="49"/>
     </row>
     <row r="574" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C574" s="5"/>
       <c r="E574" s="35"/>
-      <c r="G574" s="35"/>
+      <c r="G574" s="49"/>
     </row>
     <row r="575" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C575" s="5"/>
       <c r="E575" s="35"/>
-      <c r="G575" s="35"/>
+      <c r="G575" s="49"/>
     </row>
     <row r="576" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C576" s="5"/>
       <c r="E576" s="35"/>
-      <c r="G576" s="35"/>
+      <c r="G576" s="49"/>
     </row>
     <row r="577" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C577" s="5"/>
       <c r="E577" s="35"/>
-      <c r="G577" s="35"/>
+      <c r="G577" s="49"/>
     </row>
     <row r="578" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C578" s="5"/>
       <c r="E578" s="35"/>
-      <c r="G578" s="35"/>
+      <c r="G578" s="49"/>
     </row>
     <row r="579" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C579" s="5"/>
       <c r="E579" s="35"/>
-      <c r="G579" s="35"/>
+      <c r="G579" s="49"/>
     </row>
     <row r="580" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C580" s="5"/>
       <c r="E580" s="35"/>
-      <c r="G580" s="35"/>
+      <c r="G580" s="49"/>
     </row>
     <row r="581" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C581" s="5"/>
       <c r="E581" s="35"/>
-      <c r="G581" s="35"/>
+      <c r="G581" s="49"/>
     </row>
     <row r="582" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C582" s="5"/>
       <c r="E582" s="35"/>
-      <c r="G582" s="35"/>
+      <c r="G582" s="49"/>
     </row>
     <row r="583" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C583" s="5"/>
       <c r="E583" s="35"/>
-      <c r="G583" s="35"/>
+      <c r="G583" s="49"/>
     </row>
     <row r="584" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C584" s="5"/>
       <c r="E584" s="35"/>
-      <c r="G584" s="35"/>
+      <c r="G584" s="49"/>
     </row>
     <row r="585" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C585" s="5"/>
       <c r="E585" s="35"/>
-      <c r="G585" s="35"/>
+      <c r="G585" s="49"/>
     </row>
     <row r="586" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C586" s="5"/>
       <c r="E586" s="35"/>
-      <c r="G586" s="35"/>
+      <c r="G586" s="49"/>
     </row>
     <row r="587" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C587" s="5"/>
       <c r="E587" s="35"/>
-      <c r="G587" s="35"/>
+      <c r="G587" s="49"/>
     </row>
     <row r="588" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C588" s="5"/>
       <c r="E588" s="35"/>
-      <c r="G588" s="35"/>
+      <c r="G588" s="49"/>
     </row>
     <row r="589" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C589" s="5"/>
       <c r="E589" s="35"/>
-      <c r="G589" s="35"/>
+      <c r="G589" s="49"/>
     </row>
     <row r="590" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C590" s="5"/>
       <c r="E590" s="35"/>
-      <c r="G590" s="35"/>
+      <c r="G590" s="49"/>
     </row>
     <row r="591" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C591" s="5"/>
       <c r="E591" s="35"/>
-      <c r="G591" s="35"/>
+      <c r="G591" s="49"/>
     </row>
     <row r="592" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C592" s="5"/>
       <c r="E592" s="35"/>
-      <c r="G592" s="35"/>
+      <c r="G592" s="49"/>
     </row>
     <row r="593" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C593" s="5"/>
       <c r="E593" s="35"/>
-      <c r="G593" s="35"/>
+      <c r="G593" s="49"/>
     </row>
     <row r="594" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C594" s="5"/>
       <c r="E594" s="35"/>
-      <c r="G594" s="35"/>
+      <c r="G594" s="49"/>
     </row>
     <row r="595" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C595" s="5"/>
       <c r="E595" s="35"/>
-      <c r="G595" s="35"/>
+      <c r="G595" s="49"/>
     </row>
     <row r="596" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C596" s="5"/>
       <c r="E596" s="35"/>
-      <c r="G596" s="35"/>
+      <c r="G596" s="49"/>
     </row>
     <row r="597" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C597" s="5"/>
       <c r="E597" s="35"/>
-      <c r="G597" s="35"/>
+      <c r="G597" s="49"/>
     </row>
     <row r="598" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C598" s="5"/>
       <c r="E598" s="35"/>
-      <c r="G598" s="35"/>
+      <c r="G598" s="49"/>
     </row>
     <row r="599" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C599" s="5"/>
       <c r="E599" s="35"/>
-      <c r="G599" s="35"/>
+      <c r="G599" s="49"/>
     </row>
     <row r="600" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C600" s="5"/>
       <c r="E600" s="35"/>
-      <c r="G600" s="35"/>
+      <c r="G600" s="49"/>
     </row>
     <row r="601" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C601" s="5"/>
       <c r="E601" s="35"/>
-      <c r="G601" s="35"/>
+      <c r="G601" s="49"/>
     </row>
     <row r="602" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C602" s="5"/>
       <c r="E602" s="35"/>
-      <c r="G602" s="35"/>
+      <c r="G602" s="49"/>
     </row>
     <row r="603" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C603" s="5"/>
       <c r="E603" s="35"/>
-      <c r="G603" s="35"/>
+      <c r="G603" s="49"/>
     </row>
     <row r="604" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C604" s="5"/>
       <c r="E604" s="35"/>
-      <c r="G604" s="35"/>
+      <c r="G604" s="49"/>
     </row>
     <row r="605" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C605" s="5"/>
       <c r="E605" s="35"/>
-      <c r="G605" s="35"/>
+      <c r="G605" s="49"/>
     </row>
     <row r="606" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C606" s="5"/>
       <c r="E606" s="35"/>
-      <c r="G606" s="35"/>
+      <c r="G606" s="49"/>
     </row>
     <row r="607" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C607" s="5"/>
       <c r="E607" s="35"/>
-      <c r="G607" s="35"/>
+      <c r="G607" s="49"/>
     </row>
     <row r="608" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C608" s="5"/>
       <c r="E608" s="35"/>
-      <c r="G608" s="35"/>
+      <c r="G608" s="49"/>
     </row>
     <row r="609" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C609" s="5"/>
       <c r="E609" s="35"/>
-      <c r="G609" s="35"/>
+      <c r="G609" s="49"/>
     </row>
     <row r="610" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C610" s="5"/>
       <c r="E610" s="35"/>
-      <c r="G610" s="35"/>
+      <c r="G610" s="49"/>
     </row>
     <row r="611" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C611" s="5"/>
       <c r="E611" s="35"/>
-      <c r="G611" s="35"/>
-    </row>
-    <row r="612" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C612" s="5"/>
-      <c r="E612" s="35"/>
-      <c r="G612" s="35"/>
+      <c r="G611" s="49"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C17 E2:E17 G2:G17 C69:C612 E69:E612 G69:G612 C19:C33 E19:E33 G19:G33 C35:C67 E35:E67 G35:G67">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17 E2:E17 G2 C68:C611 E68:E611 G68:G611 C34:C66 E34:E66 G37 C19:C32 E19:E32 G30 G17 G44:G45 G56 G66">
+    <cfRule type="cellIs" dxfId="285" priority="281" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="294" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="295" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17 D2:D17 F69:F612 H69:H612 D69:D612 F19:F33 H19:H33 D19:D33 F2:F17 F35:F67 H35:H67 D35:D67">
-    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="H2 D2:D17 F68:F611 H68:H611 D68:D611 F2:F17 F34:F66 H37 D34:D66 F19:F32 H30 D19:D32 H17 H44:H45 H56 H66">
+    <cfRule type="expression" dxfId="282" priority="288" stopIfTrue="1">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="289" stopIfTrue="1">
       <formula>AND(ISBLANK(D2),C2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:B66">
-    <cfRule type="duplicateValues" dxfId="0" priority="102"/>
+  <conditionalFormatting sqref="A19:B65">
+    <cfRule type="duplicateValues" dxfId="280" priority="382"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="279" priority="276" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="279" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="280" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="expression" dxfId="276" priority="277" stopIfTrue="1">
+      <formula>AND(ISBLANK(H3),G3="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="275" priority="278" stopIfTrue="1">
+      <formula>AND(ISBLANK(H3),G3="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="274" priority="271" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="274" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="275" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" dxfId="271" priority="272" stopIfTrue="1">
+      <formula>AND(ISBLANK(H4),G4="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="273" stopIfTrue="1">
+      <formula>AND(ISBLANK(H4),G4="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="269" priority="266" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="269" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="270" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="266" priority="267" stopIfTrue="1">
+      <formula>AND(ISBLANK(H5),G5="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="265" priority="268" stopIfTrue="1">
+      <formula>AND(ISBLANK(H5),G5="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="264" priority="261" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="263" priority="264" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="265" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="expression" dxfId="261" priority="262" stopIfTrue="1">
+      <formula>AND(ISBLANK(H6),G6="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="263" stopIfTrue="1">
+      <formula>AND(ISBLANK(H6),G6="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="259" priority="256" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="259" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="260" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="256" priority="257" stopIfTrue="1">
+      <formula>AND(ISBLANK(H7),G7="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="255" priority="258" stopIfTrue="1">
+      <formula>AND(ISBLANK(H7),G7="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="254" priority="251" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="254" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="255" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="251" priority="252" stopIfTrue="1">
+      <formula>AND(ISBLANK(H8),G8="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="253" stopIfTrue="1">
+      <formula>AND(ISBLANK(H8),G8="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="249" priority="246" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="249" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="250" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="246" priority="247" stopIfTrue="1">
+      <formula>AND(ISBLANK(H9),G9="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="248" stopIfTrue="1">
+      <formula>AND(ISBLANK(H9),G9="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="244" priority="241" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="244" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="245" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" dxfId="241" priority="242" stopIfTrue="1">
+      <formula>AND(ISBLANK(H10),G10="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="243" stopIfTrue="1">
+      <formula>AND(ISBLANK(H10),G10="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="239" priority="236" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="239" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="240" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="expression" dxfId="236" priority="237" stopIfTrue="1">
+      <formula>AND(ISBLANK(H11),G11="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="238" stopIfTrue="1">
+      <formula>AND(ISBLANK(H11),G11="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="234" priority="231" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="233" priority="234" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="235" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="231" priority="232" stopIfTrue="1">
+      <formula>AND(ISBLANK(H12),G12="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="233" stopIfTrue="1">
+      <formula>AND(ISBLANK(H12),G12="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="229" priority="226" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="229" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="230" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="expression" dxfId="226" priority="227" stopIfTrue="1">
+      <formula>AND(ISBLANK(H13),G13="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="228" stopIfTrue="1">
+      <formula>AND(ISBLANK(H13),G13="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="224" priority="221" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="224" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="225" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" dxfId="221" priority="222" stopIfTrue="1">
+      <formula>AND(ISBLANK(H14),G14="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="223" stopIfTrue="1">
+      <formula>AND(ISBLANK(H14),G14="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="219" priority="216" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="219" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="220" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="216" priority="217" stopIfTrue="1">
+      <formula>AND(ISBLANK(H15),G15="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="218" stopIfTrue="1">
+      <formula>AND(ISBLANK(H15),G15="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="214" priority="211" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="214" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="215" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="expression" dxfId="211" priority="212" stopIfTrue="1">
+      <formula>AND(ISBLANK(H16),G16="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="213" stopIfTrue="1">
+      <formula>AND(ISBLANK(H16),G16="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="209" priority="206" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="209" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="210" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="expression" dxfId="206" priority="207" stopIfTrue="1">
+      <formula>AND(ISBLANK(H19),G19="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="208" stopIfTrue="1">
+      <formula>AND(ISBLANK(H19),G19="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="204" priority="201" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="204" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="205" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="expression" dxfId="201" priority="202" stopIfTrue="1">
+      <formula>AND(ISBLANK(H20),G20="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="203" stopIfTrue="1">
+      <formula>AND(ISBLANK(H20),G20="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="199" priority="196" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="199" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="200" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="expression" dxfId="196" priority="197" stopIfTrue="1">
+      <formula>AND(ISBLANK(H21),G21="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="198" stopIfTrue="1">
+      <formula>AND(ISBLANK(H21),G21="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="194" priority="191" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="194" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="195" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="expression" dxfId="191" priority="192" stopIfTrue="1">
+      <formula>AND(ISBLANK(H22),G22="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="193" stopIfTrue="1">
+      <formula>AND(ISBLANK(H22),G22="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" dxfId="189" priority="186" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="189" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="190" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="expression" dxfId="186" priority="187" stopIfTrue="1">
+      <formula>AND(ISBLANK(H23),G23="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="188" stopIfTrue="1">
+      <formula>AND(ISBLANK(H23),G23="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="184" priority="181" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="184" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="185" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="expression" dxfId="181" priority="182" stopIfTrue="1">
+      <formula>AND(ISBLANK(H24),G24="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="183" stopIfTrue="1">
+      <formula>AND(ISBLANK(H24),G24="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="179" priority="176" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="179" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="180" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="expression" dxfId="176" priority="177" stopIfTrue="1">
+      <formula>AND(ISBLANK(H25),G25="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="178" stopIfTrue="1">
+      <formula>AND(ISBLANK(H25),G25="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="174" priority="171" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="174" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="175" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="expression" dxfId="171" priority="172" stopIfTrue="1">
+      <formula>AND(ISBLANK(H26),G26="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="173" stopIfTrue="1">
+      <formula>AND(ISBLANK(H26),G26="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="169" priority="166" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="169" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="170" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="expression" dxfId="166" priority="167" stopIfTrue="1">
+      <formula>AND(ISBLANK(H27),G27="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="168" stopIfTrue="1">
+      <formula>AND(ISBLANK(H27),G27="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="164" priority="161" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="164" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="165" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="expression" dxfId="161" priority="162" stopIfTrue="1">
+      <formula>AND(ISBLANK(H28),G28="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="163" stopIfTrue="1">
+      <formula>AND(ISBLANK(H28),G28="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="159" priority="156" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="159" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="160" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="expression" dxfId="156" priority="157" stopIfTrue="1">
+      <formula>AND(ISBLANK(H29),G29="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="158" stopIfTrue="1">
+      <formula>AND(ISBLANK(H29),G29="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="154" priority="151" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="154" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="155" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="expression" dxfId="151" priority="152" stopIfTrue="1">
+      <formula>AND(ISBLANK(H31),G31="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="153" stopIfTrue="1">
+      <formula>AND(ISBLANK(H31),G31="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="149" priority="146" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="149" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="150" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="expression" dxfId="146" priority="147" stopIfTrue="1">
+      <formula>AND(ISBLANK(H32),G32="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="148" stopIfTrue="1">
+      <formula>AND(ISBLANK(H32),G32="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="cellIs" dxfId="144" priority="141" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="144" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="145" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="expression" dxfId="141" priority="142" stopIfTrue="1">
+      <formula>AND(ISBLANK(H34),G34="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="143" stopIfTrue="1">
+      <formula>AND(ISBLANK(H34),G34="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="cellIs" dxfId="139" priority="136" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="139" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="140" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="expression" dxfId="136" priority="137" stopIfTrue="1">
+      <formula>AND(ISBLANK(H35),G35="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="138" stopIfTrue="1">
+      <formula>AND(ISBLANK(H35),G35="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="cellIs" dxfId="134" priority="131" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="134" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="135" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="expression" dxfId="131" priority="132" stopIfTrue="1">
+      <formula>AND(ISBLANK(H36),G36="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="133" stopIfTrue="1">
+      <formula>AND(ISBLANK(H36),G36="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="cellIs" dxfId="129" priority="126" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="129" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="130" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="expression" dxfId="126" priority="127" stopIfTrue="1">
+      <formula>AND(ISBLANK(H38),G38="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="128" stopIfTrue="1">
+      <formula>AND(ISBLANK(H38),G38="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="cellIs" dxfId="119" priority="116" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="119" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="120" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="expression" dxfId="116" priority="117" stopIfTrue="1">
+      <formula>AND(ISBLANK(H39),G39="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="118" stopIfTrue="1">
+      <formula>AND(ISBLANK(H39),G39="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="114" priority="111" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="114" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="115" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="expression" dxfId="111" priority="112" stopIfTrue="1">
+      <formula>AND(ISBLANK(H40),G40="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="113" stopIfTrue="1">
+      <formula>AND(ISBLANK(H40),G40="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="109" priority="106" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="110" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="expression" dxfId="106" priority="107" stopIfTrue="1">
+      <formula>AND(ISBLANK(H41),G41="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="108" stopIfTrue="1">
+      <formula>AND(ISBLANK(H41),G41="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="cellIs" dxfId="104" priority="101" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="105" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="expression" dxfId="101" priority="102" stopIfTrue="1">
+      <formula>AND(ISBLANK(H42),G42="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="103" stopIfTrue="1">
+      <formula>AND(ISBLANK(H42),G42="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="cellIs" dxfId="99" priority="96" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="99" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="100" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" dxfId="96" priority="97" stopIfTrue="1">
+      <formula>AND(ISBLANK(H43),G43="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="98" stopIfTrue="1">
+      <formula>AND(ISBLANK(H43),G43="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="cellIs" dxfId="94" priority="91" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="95" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="expression" dxfId="91" priority="92" stopIfTrue="1">
+      <formula>AND(ISBLANK(H46),G46="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="93" stopIfTrue="1">
+      <formula>AND(ISBLANK(H46),G46="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="cellIs" dxfId="89" priority="86" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="90" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="expression" dxfId="86" priority="87" stopIfTrue="1">
+      <formula>AND(ISBLANK(H47),G47="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="88" stopIfTrue="1">
+      <formula>AND(ISBLANK(H47),G47="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="85" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="expression" dxfId="81" priority="82" stopIfTrue="1">
+      <formula>AND(ISBLANK(H48),G48="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="83" stopIfTrue="1">
+      <formula>AND(ISBLANK(H48),G48="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="cellIs" dxfId="79" priority="76" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="80" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="expression" dxfId="76" priority="77" stopIfTrue="1">
+      <formula>AND(ISBLANK(H49),G49="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="78" stopIfTrue="1">
+      <formula>AND(ISBLANK(H49),G49="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="cellIs" dxfId="74" priority="71" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="expression" dxfId="71" priority="72" stopIfTrue="1">
+      <formula>AND(ISBLANK(H50),G50="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="73" stopIfTrue="1">
+      <formula>AND(ISBLANK(H50),G50="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="cellIs" dxfId="69" priority="66" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="70" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="expression" dxfId="66" priority="67" stopIfTrue="1">
+      <formula>AND(ISBLANK(H51),G51="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="68" stopIfTrue="1">
+      <formula>AND(ISBLANK(H51),G51="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="cellIs" dxfId="64" priority="61" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
+      <formula>AND(ISBLANK(H52),G52="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
+      <formula>AND(ISBLANK(H52),G52="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53">
+    <cfRule type="cellIs" dxfId="59" priority="56" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="expression" dxfId="56" priority="57" stopIfTrue="1">
+      <formula>AND(ISBLANK(H53),G53="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="58" stopIfTrue="1">
+      <formula>AND(ISBLANK(H53),G53="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54">
+    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" dxfId="51" priority="52" stopIfTrue="1">
+      <formula>AND(ISBLANK(H54),G54="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="53" stopIfTrue="1">
+      <formula>AND(ISBLANK(H54),G54="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55">
+    <cfRule type="cellIs" dxfId="49" priority="46" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
+      <formula>AND(ISBLANK(H55),G55="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="48" stopIfTrue="1">
+      <formula>AND(ISBLANK(H55),G55="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57">
+    <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
+      <formula>AND(ISBLANK(H57),G57="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="43" stopIfTrue="1">
+      <formula>AND(ISBLANK(H57),G57="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="expression" dxfId="36" priority="37" stopIfTrue="1">
+      <formula>AND(ISBLANK(H58),G58="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="38" stopIfTrue="1">
+      <formula>AND(ISBLANK(H58),G58="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+      <formula>AND(ISBLANK(H59),G59="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+      <formula>AND(ISBLANK(H59),G59="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G60">
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
+      <formula>AND(ISBLANK(H60),G60="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="28" stopIfTrue="1">
+      <formula>AND(ISBLANK(H60),G60="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G61">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+      <formula>AND(ISBLANK(H61),G61="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
+      <formula>AND(ISBLANK(H61),G61="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+      <formula>AND(ISBLANK(H62),G62="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+      <formula>AND(ISBLANK(H62),G62="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
+      <formula>AND(ISBLANK(H63),G63="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
+      <formula>AND(ISBLANK(H63),G63="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>AND(ISBLANK(H64),G64="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
+      <formula>AND(ISBLANK(H64),G64="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"Untested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>AND(ISBLANK(H65),G65="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>AND(ISBLANK(H65),G65="Fail")</formula>
+    </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G17 E2:E17 C2:C17 E69:E612 C69:C612 G69:G612 E19:E33 C19:C33 G19:G33 E35:E67 C35:C67 G35:G67" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19:E32 E2:E17 C2:C17 E68:E611 C68:C611 G68:G611 E34:E66 C34:C66 G19:G32 G2:G17 C19:C32 G34:G66">
       <formula1>"Pass,Fail,Untested"</formula1>
     </dataValidation>
   </dataValidations>
